--- a/tables/trnsl_20250620_new.xlsx
+++ b/tables/trnsl_20250620_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programs\Unreal Engine Modding\UnrealPak\Русификатор для игры The Midnight Walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C705E6-3083-43D9-8819-38C4616BCAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1274ED0-BFD5-4E1A-AB09-EA6622A6340C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE8775F8-18EC-47CB-8F58-14CC3C9B8901}"/>
   </bookViews>
@@ -10985,9 +10985,6 @@
     <t>Огонь? Хах!</t>
   </si>
   <si>
-    <t>Я почти забыл, каково это...</t>
-  </si>
-  <si>
     <t>Аргх, выше голову!</t>
   </si>
   <si>
@@ -12926,9 +12923,6 @@
     <t>Главное меню</t>
   </si>
   <si>
-    <t>Карта углеграда</t>
-  </si>
-  <si>
     <t>Карта болот молгримов</t>
   </si>
   <si>
@@ -13526,9 +13520,6 @@
     <t>Похоже на пустоту: нет ничего, но и холода нет</t>
   </si>
   <si>
-    <t>Титры (версия русификатора 2.8 – 20251029)</t>
-  </si>
-  <si>
     <t>The Midnight Walk  {Перевёл — Dontaz}</t>
   </si>
   <si>
@@ -13536,6 +13527,15 @@
   </si>
   <si>
     <t>Месть Углеграда</t>
+  </si>
+  <si>
+    <t>Карта Углеграда</t>
+  </si>
+  <si>
+    <t>Эй, я почти забыл, каково это...</t>
+  </si>
+  <si>
+    <t>Титры (версия русификатора 2.9 – 20251203)</t>
   </si>
 </sst>
 </file>
@@ -13954,8 +13954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996245DB-D62E-4B2D-B5A4-DB58784126A7}">
   <dimension ref="A1:F2737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D456" sqref="D456"/>
+    <sheetView tabSelected="1" topLeftCell="A1583" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1600" sqref="C1600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13970,26 +13970,26 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="45">
       <c r="A2" s="2" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="2" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3541</v>
@@ -13998,25 +13998,25 @@
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="2" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="2" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="2" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2742</v>
@@ -14025,7 +14025,7 @@
     </row>
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="2" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2743</v>
@@ -14034,16 +14034,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4475</v>
+        <v>4473</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="2" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2744</v>
@@ -14052,7 +14052,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2745</v>
@@ -14061,7 +14061,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -14070,55 +14070,55 @@
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" s="2" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="2" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" s="2" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="30">
       <c r="A15" s="2" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" s="2" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -14127,7 +14127,7 @@
         <v>512</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -14136,7 +14136,7 @@
         <v>513</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -14145,7 +14145,7 @@
         <v>514</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -14154,7 +14154,7 @@
         <v>515</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -14163,7 +14163,7 @@
         <v>516</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4445</v>
+        <v>4443</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -14172,7 +14172,7 @@
         <v>517</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -14181,7 +14181,7 @@
         <v>518</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -14190,7 +14190,7 @@
         <v>519</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -14199,7 +14199,7 @@
         <v>520</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -14208,7 +14208,7 @@
         <v>521</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -14217,7 +14217,7 @@
         <v>522</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -14226,16 +14226,16 @@
         <v>523</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="2" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -14244,7 +14244,7 @@
         <v>524</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -14253,7 +14253,7 @@
         <v>525</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -14262,7 +14262,7 @@
         <v>526</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -14271,7 +14271,7 @@
         <v>527</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -14280,7 +14280,7 @@
         <v>528</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -14289,16 +14289,16 @@
         <v>529</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>4447</v>
+        <v>4445</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="30">
       <c r="A37" s="2" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>4480</v>
+        <v>4478</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -14307,7 +14307,7 @@
         <v>530</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -14316,7 +14316,7 @@
         <v>531</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -14325,7 +14325,7 @@
         <v>532</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -14334,7 +14334,7 @@
         <v>533</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -14343,7 +14343,7 @@
         <v>534</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="E42" s="2"/>
     </row>
@@ -14352,7 +14352,7 @@
         <v>535</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -14361,7 +14361,7 @@
         <v>536</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="E44" s="2"/>
     </row>
@@ -14370,7 +14370,7 @@
         <v>537</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -14379,7 +14379,7 @@
         <v>538</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -14388,7 +14388,7 @@
         <v>539</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="E47" s="2"/>
     </row>
@@ -14397,7 +14397,7 @@
         <v>540</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -14406,7 +14406,7 @@
         <v>541</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="E49" s="2"/>
     </row>
@@ -14415,7 +14415,7 @@
         <v>542</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="E50" s="2"/>
     </row>
@@ -14424,7 +14424,7 @@
         <v>543</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="E51" s="2"/>
     </row>
@@ -14433,16 +14433,16 @@
         <v>544</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="E53" s="2"/>
     </row>
@@ -14451,7 +14451,7 @@
         <v>545</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="E54" s="2"/>
     </row>
@@ -14460,7 +14460,7 @@
         <v>545</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="E55" s="2"/>
     </row>
@@ -14469,7 +14469,7 @@
         <v>546</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>4413</v>
+        <v>4411</v>
       </c>
       <c r="E56" s="2"/>
     </row>
@@ -14478,7 +14478,7 @@
         <v>547</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="E57" s="2"/>
     </row>
@@ -14487,7 +14487,7 @@
         <v>548</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="E58" s="2"/>
     </row>
@@ -14496,7 +14496,7 @@
         <v>549</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="E59" s="2"/>
     </row>
@@ -14505,7 +14505,7 @@
         <v>549</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -14514,7 +14514,7 @@
         <v>550</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="E61" s="2"/>
     </row>
@@ -14523,7 +14523,7 @@
         <v>551</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="E62" s="2"/>
     </row>
@@ -14532,7 +14532,7 @@
         <v>552</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="E63" s="2"/>
     </row>
@@ -14541,7 +14541,7 @@
         <v>553</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>4462</v>
+        <v>4460</v>
       </c>
       <c r="E64" s="2"/>
     </row>
@@ -14550,7 +14550,7 @@
         <v>554</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="E65" s="2"/>
     </row>
@@ -14559,7 +14559,7 @@
         <v>555</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="E66" s="2"/>
     </row>
@@ -14568,7 +14568,7 @@
         <v>556</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="E67" s="2"/>
     </row>
@@ -14577,7 +14577,7 @@
         <v>557</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="E68" s="2"/>
     </row>
@@ -14586,7 +14586,7 @@
         <v>558</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="E69" s="2"/>
     </row>
@@ -14595,7 +14595,7 @@
         <v>559</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="E70" s="2"/>
     </row>
@@ -14604,7 +14604,7 @@
         <v>560</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="E71" s="2"/>
     </row>
@@ -14613,7 +14613,7 @@
         <v>561</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="E72" s="2"/>
     </row>
@@ -14622,7 +14622,7 @@
         <v>562</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -14775,7 +14775,7 @@
         <v>573</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>4448</v>
+        <v>4446</v>
       </c>
       <c r="E90" s="2"/>
     </row>
@@ -14838,7 +14838,7 @@
         <v>579</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="E97" s="2"/>
     </row>
@@ -14847,7 +14847,7 @@
         <v>580</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="E98" s="2"/>
     </row>
@@ -14856,7 +14856,7 @@
         <v>581</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="E99" s="2"/>
     </row>
@@ -14973,7 +14973,7 @@
         <v>587</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
       <c r="E112" s="2"/>
     </row>
@@ -15243,7 +15243,7 @@
         <v>607</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="E142" s="2"/>
     </row>
@@ -15288,7 +15288,7 @@
         <v>611</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="E147" s="2"/>
     </row>
@@ -15351,7 +15351,7 @@
         <v>617</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="E154" s="2"/>
     </row>
@@ -15405,7 +15405,7 @@
         <v>623</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>4302</v>
+        <v>4300</v>
       </c>
       <c r="E160" s="2"/>
     </row>
@@ -15423,7 +15423,7 @@
         <v>625</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="E162" s="2"/>
     </row>
@@ -15432,7 +15432,7 @@
         <v>626</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="E163" s="2"/>
     </row>
@@ -15468,7 +15468,7 @@
         <v>630</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="E167" s="2"/>
     </row>
@@ -15495,7 +15495,7 @@
         <v>633</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="E170" s="2"/>
     </row>
@@ -15513,7 +15513,7 @@
         <v>635</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="E172" s="2"/>
     </row>
@@ -15540,7 +15540,7 @@
         <v>637</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="E175" s="2"/>
     </row>
@@ -15558,7 +15558,7 @@
         <v>639</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="E177" s="2"/>
     </row>
@@ -15576,7 +15576,7 @@
         <v>641</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="E179" s="2"/>
     </row>
@@ -15783,7 +15783,7 @@
         <v>645</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>4425</v>
+        <v>4423</v>
       </c>
       <c r="E202" s="2"/>
     </row>
@@ -15792,7 +15792,7 @@
         <v>646</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="E203" s="2"/>
     </row>
@@ -15819,7 +15819,7 @@
         <v>649</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="E206" s="2"/>
     </row>
@@ -15828,7 +15828,7 @@
         <v>650</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="E207" s="2"/>
     </row>
@@ -15873,7 +15873,7 @@
         <v>655</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="E212" s="2"/>
     </row>
@@ -15900,7 +15900,7 @@
         <v>658</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>4305</v>
+        <v>4303</v>
       </c>
       <c r="E215" s="2"/>
     </row>
@@ -15909,7 +15909,7 @@
         <v>659</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="E216" s="2"/>
     </row>
@@ -15945,7 +15945,7 @@
         <v>661</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>4306</v>
+        <v>4304</v>
       </c>
       <c r="E220" s="2"/>
     </row>
@@ -15960,19 +15960,19 @@
     </row>
     <row r="222" spans="1:5" ht="30">
       <c r="A222" s="2" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" ht="30">
       <c r="A223" s="2" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="E223" s="2"/>
     </row>
@@ -15990,7 +15990,7 @@
         <v>664</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="E225" s="2"/>
     </row>
@@ -15999,7 +15999,7 @@
         <v>665</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="E226" s="2"/>
     </row>
@@ -16014,7 +16014,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>2785</v>
@@ -16044,7 +16044,7 @@
         <v>669</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="E231" s="2"/>
     </row>
@@ -16089,7 +16089,7 @@
         <v>674</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>4453</v>
+        <v>4451</v>
       </c>
       <c r="E236" s="2"/>
     </row>
@@ -16116,7 +16116,7 @@
         <v>677</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="E239" s="2"/>
     </row>
@@ -16125,7 +16125,7 @@
         <v>678</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="E240" s="2"/>
     </row>
@@ -16140,10 +16140,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="E242" s="2"/>
     </row>
@@ -16152,7 +16152,7 @@
         <v>680</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="E243" s="2"/>
     </row>
@@ -16161,7 +16161,7 @@
         <v>680</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="E244" s="2"/>
     </row>
@@ -16170,7 +16170,7 @@
         <v>681</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="E245" s="2"/>
     </row>
@@ -16179,7 +16179,7 @@
         <v>682</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="E246" s="2"/>
     </row>
@@ -16206,7 +16206,7 @@
         <v>685</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="E249" s="2"/>
     </row>
@@ -16215,16 +16215,16 @@
         <v>686</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="E251" s="2"/>
     </row>
@@ -16233,7 +16233,7 @@
         <v>687</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="E252" s="2"/>
     </row>
@@ -16242,7 +16242,7 @@
         <v>688</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="E253" s="2"/>
     </row>
@@ -16284,7 +16284,7 @@
     </row>
     <row r="258" spans="1:5" ht="30">
       <c r="A258" s="2" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>2794</v>
@@ -16305,7 +16305,7 @@
         <v>694</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="E260" s="2"/>
     </row>
@@ -16323,7 +16323,7 @@
         <v>696</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="E262" s="2"/>
     </row>
@@ -16332,7 +16332,7 @@
         <v>697</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>4301</v>
+        <v>4299</v>
       </c>
       <c r="E263" s="2"/>
     </row>
@@ -16359,7 +16359,7 @@
         <v>700</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="E266" s="2"/>
     </row>
@@ -16377,7 +16377,7 @@
         <v>702</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>4307</v>
+        <v>4305</v>
       </c>
       <c r="E268" s="2"/>
     </row>
@@ -16467,7 +16467,7 @@
         <v>709</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="E278" s="2"/>
     </row>
@@ -16491,10 +16491,10 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="E281" s="2"/>
     </row>
@@ -16638,7 +16638,7 @@
         <v>726</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="E297" s="2"/>
     </row>
@@ -16662,7 +16662,7 @@
     </row>
     <row r="300" spans="1:5" ht="30">
       <c r="A300" s="2" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>2812</v>
@@ -16746,16 +16746,16 @@
         <v>735</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="E310" s="2"/>
     </row>
@@ -16782,7 +16782,7 @@
         <v>738</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="E313" s="2"/>
     </row>
@@ -16791,7 +16791,7 @@
         <v>739</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="E314" s="2"/>
     </row>
@@ -16800,7 +16800,7 @@
         <v>740</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="E315" s="2"/>
     </row>
@@ -16818,7 +16818,7 @@
         <v>742</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="E317" s="2"/>
     </row>
@@ -16836,7 +16836,7 @@
         <v>744</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="E319" s="2"/>
     </row>
@@ -16872,7 +16872,7 @@
         <v>748</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="E323" s="2"/>
     </row>
@@ -16881,7 +16881,7 @@
         <v>749</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="E324" s="2"/>
     </row>
@@ -16890,7 +16890,7 @@
         <v>750</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="E325" s="2"/>
     </row>
@@ -16935,7 +16935,7 @@
         <v>754</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="E330" s="2"/>
     </row>
@@ -16989,7 +16989,7 @@
         <v>759</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="E336" s="2"/>
     </row>
@@ -16998,7 +16998,7 @@
         <v>760</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>4449</v>
+        <v>4447</v>
       </c>
       <c r="E337" s="2"/>
     </row>
@@ -17106,7 +17106,7 @@
         <v>769</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="E349" s="2"/>
     </row>
@@ -17115,7 +17115,7 @@
         <v>769</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="E350" s="2"/>
     </row>
@@ -17133,7 +17133,7 @@
         <v>771</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="E352" s="2"/>
     </row>
@@ -17169,16 +17169,16 @@
         <v>775</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="E357" s="2"/>
     </row>
@@ -17214,7 +17214,7 @@
         <v>779</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="E361" s="2"/>
     </row>
@@ -17250,7 +17250,7 @@
         <v>783</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="E365" s="2"/>
     </row>
@@ -17259,7 +17259,7 @@
         <v>784</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="E366" s="2"/>
     </row>
@@ -17304,7 +17304,7 @@
         <v>789</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="E371" s="2"/>
     </row>
@@ -17313,7 +17313,7 @@
         <v>789</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="E372" s="2"/>
     </row>
@@ -17322,7 +17322,7 @@
         <v>790</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="E373" s="2"/>
     </row>
@@ -17340,7 +17340,7 @@
         <v>791</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>4464</v>
+        <v>4462</v>
       </c>
       <c r="E375" s="2"/>
     </row>
@@ -17376,7 +17376,7 @@
         <v>795</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="E379" s="2"/>
     </row>
@@ -17394,7 +17394,7 @@
         <v>797</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="E381" s="2"/>
     </row>
@@ -17403,7 +17403,7 @@
         <v>798</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="E382" s="2"/>
     </row>
@@ -17412,7 +17412,7 @@
         <v>799</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="E383" s="2"/>
     </row>
@@ -17430,7 +17430,7 @@
         <v>801</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E385" s="2"/>
     </row>
@@ -17466,7 +17466,7 @@
         <v>805</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>4426</v>
+        <v>4424</v>
       </c>
       <c r="E389" s="2"/>
     </row>
@@ -17475,7 +17475,7 @@
         <v>806</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="E390" s="2"/>
     </row>
@@ -17484,7 +17484,7 @@
         <v>806</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="E391" s="2"/>
     </row>
@@ -17583,7 +17583,7 @@
         <v>817</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="E402" s="2"/>
     </row>
@@ -17592,7 +17592,7 @@
         <v>818</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="E403" s="2"/>
     </row>
@@ -17607,10 +17607,10 @@
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="2" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="E405" s="2"/>
     </row>
@@ -17637,7 +17637,7 @@
         <v>822</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="E408" s="2"/>
     </row>
@@ -17646,7 +17646,7 @@
         <v>823</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="E409" s="2"/>
     </row>
@@ -17682,7 +17682,7 @@
         <v>827</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="E413" s="2"/>
     </row>
@@ -17727,7 +17727,7 @@
         <v>832</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>4427</v>
+        <v>4425</v>
       </c>
       <c r="E418" s="2"/>
     </row>
@@ -17736,7 +17736,7 @@
         <v>833</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="E419" s="2"/>
     </row>
@@ -17745,7 +17745,7 @@
         <v>833</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="E420" s="2"/>
     </row>
@@ -17754,7 +17754,7 @@
         <v>834</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="E421" s="2"/>
     </row>
@@ -17763,7 +17763,7 @@
         <v>834</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="E422" s="2"/>
     </row>
@@ -17772,7 +17772,7 @@
         <v>835</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="E423" s="2"/>
     </row>
@@ -17781,7 +17781,7 @@
         <v>836</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="E424" s="2"/>
     </row>
@@ -17796,10 +17796,10 @@
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="2" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="E426" s="2"/>
     </row>
@@ -17808,16 +17808,16 @@
         <v>838</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="E427" s="2"/>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="2" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="E428" s="2"/>
     </row>
@@ -17826,7 +17826,7 @@
         <v>839</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E429" s="2"/>
     </row>
@@ -17862,7 +17862,7 @@
         <v>842</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="E433" s="2"/>
     </row>
@@ -17871,7 +17871,7 @@
         <v>843</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="E434" s="2"/>
     </row>
@@ -17898,7 +17898,7 @@
         <v>846</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="E437" s="2"/>
     </row>
@@ -17907,7 +17907,7 @@
         <v>846</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="E438" s="2"/>
     </row>
@@ -17916,7 +17916,7 @@
         <v>846</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="E439" s="2"/>
     </row>
@@ -17925,7 +17925,7 @@
         <v>847</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="E440" s="2"/>
     </row>
@@ -17934,7 +17934,7 @@
         <v>848</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="E441" s="2"/>
     </row>
@@ -17943,7 +17943,7 @@
         <v>848</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="E442" s="2"/>
     </row>
@@ -17952,7 +17952,7 @@
         <v>849</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="E443" s="2"/>
     </row>
@@ -17997,7 +17997,7 @@
         <v>853</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="E448" s="2"/>
     </row>
@@ -18033,7 +18033,7 @@
         <v>856</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="E452" s="2"/>
     </row>
@@ -18042,7 +18042,7 @@
         <v>856</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="E453" s="2"/>
     </row>
@@ -18060,7 +18060,7 @@
         <v>858</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>4499</v>
+        <v>4496</v>
       </c>
       <c r="E455" s="2"/>
     </row>
@@ -18123,7 +18123,7 @@
         <v>864</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="E462" s="2"/>
     </row>
@@ -18132,7 +18132,7 @@
         <v>865</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="E463" s="2"/>
     </row>
@@ -18141,7 +18141,7 @@
         <v>866</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="E464" s="2"/>
     </row>
@@ -18150,7 +18150,7 @@
         <v>867</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="E465" s="2"/>
     </row>
@@ -18168,7 +18168,7 @@
         <v>869</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="E467" s="2"/>
     </row>
@@ -18309,7 +18309,7 @@
         <v>880</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="E482" s="2"/>
     </row>
@@ -18318,7 +18318,7 @@
         <v>881</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>4496</v>
+        <v>4499</v>
       </c>
       <c r="E483" s="2"/>
     </row>
@@ -18360,10 +18360,10 @@
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="2" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="E488" s="2"/>
     </row>
@@ -18426,7 +18426,7 @@
         <v>890</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="E495" s="2"/>
     </row>
@@ -18435,7 +18435,7 @@
         <v>891</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="E496" s="2"/>
     </row>
@@ -18486,10 +18486,10 @@
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="2" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="E502" s="2"/>
     </row>
@@ -18534,7 +18534,7 @@
         <v>898</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="E507" s="2"/>
     </row>
@@ -18543,7 +18543,7 @@
         <v>898</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="E508" s="2"/>
     </row>
@@ -18570,7 +18570,7 @@
         <v>901</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>4450</v>
+        <v>4448</v>
       </c>
       <c r="E511" s="2"/>
     </row>
@@ -18579,7 +18579,7 @@
         <v>902</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="E512" s="2"/>
     </row>
@@ -18588,7 +18588,7 @@
         <v>903</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="E513" s="2"/>
     </row>
@@ -18702,10 +18702,10 @@
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="2" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="E526" s="2"/>
     </row>
@@ -18741,7 +18741,7 @@
         <v>917</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="E530" s="2"/>
     </row>
@@ -18819,7 +18819,7 @@
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="2" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>83</v>
@@ -18858,7 +18858,7 @@
         <v>927</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="E543" s="2"/>
     </row>
@@ -18867,7 +18867,7 @@
         <v>927</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="E544" s="2"/>
     </row>
@@ -18885,7 +18885,7 @@
         <v>929</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="E546" s="2"/>
     </row>
@@ -18894,7 +18894,7 @@
         <v>930</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="E547" s="2"/>
     </row>
@@ -18918,10 +18918,10 @@
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="2" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="E550" s="2"/>
     </row>
@@ -18930,7 +18930,7 @@
         <v>933</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="E551" s="2"/>
     </row>
@@ -18957,7 +18957,7 @@
         <v>936</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="E554" s="2"/>
     </row>
@@ -18975,7 +18975,7 @@
         <v>938</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="E556" s="2"/>
     </row>
@@ -18993,7 +18993,7 @@
         <v>940</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="E558" s="2"/>
     </row>
@@ -19002,7 +19002,7 @@
         <v>941</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="E559" s="2"/>
     </row>
@@ -19011,7 +19011,7 @@
         <v>942</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="E560" s="2"/>
     </row>
@@ -19020,7 +19020,7 @@
         <v>942</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="E561" s="2"/>
     </row>
@@ -19029,7 +19029,7 @@
         <v>943</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="E562" s="2"/>
     </row>
@@ -19083,7 +19083,7 @@
         <v>947</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="E568" s="2"/>
     </row>
@@ -19164,7 +19164,7 @@
         <v>955</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>4489</v>
+        <v>4487</v>
       </c>
       <c r="E577" s="2"/>
     </row>
@@ -19308,7 +19308,7 @@
         <v>968</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="E593" s="2"/>
     </row>
@@ -19326,7 +19326,7 @@
         <v>970</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="E595" s="2"/>
     </row>
@@ -19398,7 +19398,7 @@
         <v>977</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="E603" s="2"/>
     </row>
@@ -19452,7 +19452,7 @@
         <v>983</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="E609" s="2"/>
     </row>
@@ -19461,7 +19461,7 @@
         <v>983</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="E610" s="2"/>
     </row>
@@ -19470,7 +19470,7 @@
         <v>984</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>4498</v>
+        <v>4495</v>
       </c>
       <c r="E611" s="2"/>
     </row>
@@ -19488,7 +19488,7 @@
         <v>986</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="E613" s="2"/>
     </row>
@@ -19533,7 +19533,7 @@
         <v>989</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="E618" s="2"/>
     </row>
@@ -19584,10 +19584,10 @@
     </row>
     <row r="624" spans="1:5">
       <c r="A624" s="2" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="E624" s="2"/>
     </row>
@@ -19650,7 +19650,7 @@
         <v>1001</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="E631" s="2"/>
     </row>
@@ -19659,25 +19659,25 @@
         <v>1002</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="E632" s="2"/>
     </row>
     <row r="633" spans="1:5">
       <c r="A633" s="2" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="E633" s="2"/>
     </row>
     <row r="634" spans="1:5">
       <c r="A634" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="E634" s="2"/>
     </row>
@@ -19686,7 +19686,7 @@
         <v>1003</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>4479</v>
+        <v>4477</v>
       </c>
       <c r="E635" s="2"/>
     </row>
@@ -19722,7 +19722,7 @@
         <v>1007</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="E639" s="2"/>
     </row>
@@ -19731,7 +19731,7 @@
         <v>1008</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="E640" s="2"/>
     </row>
@@ -19821,7 +19821,7 @@
         <v>1018</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="E650" s="2"/>
     </row>
@@ -19830,7 +19830,7 @@
         <v>1019</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="E651" s="2"/>
     </row>
@@ -19839,7 +19839,7 @@
         <v>1019</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="E652" s="2"/>
     </row>
@@ -19875,7 +19875,7 @@
         <v>511</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="E656" s="2"/>
     </row>
@@ -19965,7 +19965,7 @@
         <v>1031</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="E666" s="2"/>
     </row>
@@ -19974,7 +19974,7 @@
         <v>1031</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="E667" s="2"/>
     </row>
@@ -19983,7 +19983,7 @@
         <v>1032</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="E668" s="2"/>
     </row>
@@ -20034,7 +20034,7 @@
     </row>
     <row r="674" spans="1:5" ht="30">
       <c r="A674" s="2" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="B674" s="2" t="s">
         <v>2904</v>
@@ -20100,7 +20100,7 @@
         <v>1044</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="E681" s="2"/>
     </row>
@@ -20118,7 +20118,7 @@
         <v>1046</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="E683" s="2"/>
     </row>
@@ -20127,7 +20127,7 @@
         <v>1047</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="E684" s="2"/>
     </row>
@@ -20136,7 +20136,7 @@
         <v>1048</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="E685" s="2"/>
     </row>
@@ -20145,7 +20145,7 @@
         <v>1049</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="E686" s="2"/>
     </row>
@@ -20154,7 +20154,7 @@
         <v>1049</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="E687" s="2"/>
     </row>
@@ -20187,19 +20187,19 @@
     </row>
     <row r="691" spans="1:5">
       <c r="A691" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="E691" s="2"/>
     </row>
     <row r="692" spans="1:5">
       <c r="A692" s="2" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="E692" s="2"/>
     </row>
@@ -20244,7 +20244,7 @@
         <v>1057</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="E697" s="2"/>
     </row>
@@ -20289,7 +20289,7 @@
         <v>1062</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="E702" s="2"/>
     </row>
@@ -20307,7 +20307,7 @@
         <v>1064</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>3649</v>
+        <v>4498</v>
       </c>
       <c r="E704" s="2"/>
     </row>
@@ -20316,7 +20316,7 @@
         <v>1065</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="E705" s="2"/>
     </row>
@@ -20334,7 +20334,7 @@
         <v>1067</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="E707" s="2"/>
     </row>
@@ -20343,7 +20343,7 @@
         <v>1068</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="E708" s="2"/>
     </row>
@@ -20397,7 +20397,7 @@
         <v>1072</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>4444</v>
+        <v>4442</v>
       </c>
       <c r="E714" s="2"/>
     </row>
@@ -20448,10 +20448,10 @@
     </row>
     <row r="720" spans="1:5">
       <c r="A720" s="2" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="E720" s="2"/>
     </row>
@@ -20487,7 +20487,7 @@
         <v>1079</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="E724" s="2"/>
     </row>
@@ -20496,7 +20496,7 @@
         <v>1079</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="E725" s="2"/>
     </row>
@@ -20532,7 +20532,7 @@
         <v>1083</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="E729" s="2"/>
     </row>
@@ -20559,7 +20559,7 @@
         <v>1085</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="E732" s="2"/>
     </row>
@@ -20568,7 +20568,7 @@
         <v>1085</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="E733" s="2"/>
     </row>
@@ -20604,7 +20604,7 @@
         <v>1088</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="E737" s="2"/>
     </row>
@@ -20631,7 +20631,7 @@
         <v>1091</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
       <c r="E740" s="2"/>
     </row>
@@ -20649,7 +20649,7 @@
         <v>1093</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="E742" s="2"/>
     </row>
@@ -20658,7 +20658,7 @@
         <v>1094</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="E743" s="2"/>
     </row>
@@ -20676,13 +20676,13 @@
         <v>1096</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="E745" s="2"/>
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="2" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="B746" s="2" t="s">
         <v>1097</v>
@@ -20703,7 +20703,7 @@
         <v>1099</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="E748" s="2"/>
     </row>
@@ -20712,7 +20712,7 @@
         <v>1099</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="E749" s="2"/>
     </row>
@@ -20748,7 +20748,7 @@
         <v>1103</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="E753" s="2"/>
     </row>
@@ -20775,7 +20775,7 @@
         <v>1106</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="E756" s="2"/>
     </row>
@@ -20811,7 +20811,7 @@
         <v>1110</v>
       </c>
       <c r="B760" s="7" t="s">
-        <v>4486</v>
+        <v>4484</v>
       </c>
       <c r="E760" s="2"/>
     </row>
@@ -20820,7 +20820,7 @@
         <v>1110</v>
       </c>
       <c r="B761" s="7" t="s">
-        <v>4486</v>
+        <v>4484</v>
       </c>
       <c r="E761" s="2"/>
     </row>
@@ -20829,7 +20829,7 @@
         <v>1111</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="E762" s="2"/>
     </row>
@@ -20865,7 +20865,7 @@
         <v>1115</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="E766" s="2"/>
     </row>
@@ -20883,7 +20883,7 @@
         <v>1117</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="E768" s="2"/>
     </row>
@@ -20901,7 +20901,7 @@
         <v>1119</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="E770" s="2"/>
     </row>
@@ -20946,7 +20946,7 @@
         <v>1124</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="E775" s="2"/>
     </row>
@@ -20973,7 +20973,7 @@
         <v>1127</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="E778" s="2"/>
     </row>
@@ -21009,7 +21009,7 @@
         <v>1131</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="E782" s="2"/>
     </row>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="2" t="s">
-        <v>4461</v>
+        <v>4459</v>
       </c>
       <c r="B784" s="2" t="s">
         <v>139</v>
@@ -21114,7 +21114,7 @@
     </row>
     <row r="794" spans="1:5">
       <c r="A794" s="2" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="B794" s="2" t="s">
         <v>2944</v>
@@ -21135,7 +21135,7 @@
         <v>1143</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="E796" s="2"/>
     </row>
@@ -21144,7 +21144,7 @@
         <v>1144</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="E797" s="2"/>
     </row>
@@ -21162,7 +21162,7 @@
         <v>1146</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>4428</v>
+        <v>4426</v>
       </c>
       <c r="E799" s="2"/>
     </row>
@@ -21180,7 +21180,7 @@
         <v>1148</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="E801" s="2"/>
     </row>
@@ -21189,7 +21189,7 @@
         <v>1149</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="E802" s="2"/>
     </row>
@@ -21198,7 +21198,7 @@
         <v>1150</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="E803" s="2"/>
     </row>
@@ -21216,7 +21216,7 @@
         <v>1152</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="E805" s="2"/>
     </row>
@@ -21225,16 +21225,16 @@
         <v>1153</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="E806" s="2"/>
     </row>
     <row r="807" spans="1:5" ht="30">
       <c r="A807" s="2" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>4481</v>
+        <v>4479</v>
       </c>
       <c r="E807" s="2"/>
     </row>
@@ -21243,7 +21243,7 @@
         <v>1154</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="E808" s="2"/>
     </row>
@@ -21252,7 +21252,7 @@
         <v>1154</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="E809" s="2"/>
     </row>
@@ -21270,7 +21270,7 @@
         <v>1156</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="E811" s="2"/>
     </row>
@@ -21279,7 +21279,7 @@
         <v>1157</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="E812" s="2"/>
     </row>
@@ -21333,7 +21333,7 @@
         <v>1162</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E818" s="2"/>
     </row>
@@ -21441,7 +21441,7 @@
         <v>1173</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="E830" s="2"/>
     </row>
@@ -21459,7 +21459,7 @@
         <v>1175</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="E832" s="2"/>
     </row>
@@ -21477,13 +21477,13 @@
         <v>1177</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
       <c r="E834" s="2"/>
     </row>
     <row r="835" spans="1:5" ht="30">
       <c r="A835" s="2" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="B835" s="2" t="s">
         <v>3626</v>
@@ -21504,7 +21504,7 @@
         <v>1179</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="E837" s="2"/>
     </row>
@@ -21540,7 +21540,7 @@
         <v>1183</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="E841" s="2"/>
     </row>
@@ -21585,7 +21585,7 @@
         <v>1186</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="E846" s="2"/>
     </row>
@@ -21630,7 +21630,7 @@
         <v>1189</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="E851" s="2"/>
     </row>
@@ -21645,7 +21645,7 @@
     </row>
     <row r="853" spans="1:5" ht="30">
       <c r="A853" s="2" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="B853" s="2" t="s">
         <v>152</v>
@@ -21684,7 +21684,7 @@
         <v>1194</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="E857" s="2"/>
     </row>
@@ -21693,7 +21693,7 @@
         <v>1195</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="E858" s="2"/>
     </row>
@@ -21702,7 +21702,7 @@
         <v>1195</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="E859" s="2"/>
     </row>
@@ -21711,7 +21711,7 @@
         <v>1196</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="E860" s="2"/>
     </row>
@@ -21720,7 +21720,7 @@
         <v>1196</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="E861" s="2"/>
     </row>
@@ -21729,7 +21729,7 @@
         <v>1197</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="E862" s="2"/>
     </row>
@@ -21756,7 +21756,7 @@
         <v>1199</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="E865" s="2"/>
     </row>
@@ -21810,7 +21810,7 @@
         <v>1205</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="E871" s="2"/>
     </row>
@@ -21819,7 +21819,7 @@
         <v>1205</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="E872" s="2"/>
     </row>
@@ -21891,7 +21891,7 @@
         <v>1213</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="E880" s="2"/>
     </row>
@@ -21900,7 +21900,7 @@
         <v>1214</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="E881" s="2"/>
     </row>
@@ -21972,7 +21972,7 @@
         <v>1222</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>4483</v>
+        <v>4481</v>
       </c>
       <c r="E889" s="2"/>
     </row>
@@ -21990,7 +21990,7 @@
         <v>1224</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>4495</v>
+        <v>4493</v>
       </c>
       <c r="E891" s="2"/>
     </row>
@@ -22008,7 +22008,7 @@
         <v>1226</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>4488</v>
+        <v>4486</v>
       </c>
       <c r="E893" s="2"/>
     </row>
@@ -22026,7 +22026,7 @@
         <v>1228</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>4308</v>
+        <v>4306</v>
       </c>
       <c r="E895" s="2"/>
     </row>
@@ -22053,7 +22053,7 @@
         <v>1231</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="E898" s="2"/>
     </row>
@@ -22089,7 +22089,7 @@
         <v>1235</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="E902" s="2"/>
     </row>
@@ -22098,7 +22098,7 @@
         <v>1236</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>4485</v>
+        <v>4483</v>
       </c>
       <c r="E903" s="2"/>
     </row>
@@ -22107,7 +22107,7 @@
         <v>1237</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>4487</v>
+        <v>4485</v>
       </c>
       <c r="E904" s="2"/>
     </row>
@@ -22161,7 +22161,7 @@
         <v>1242</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="E910" s="2"/>
     </row>
@@ -22179,7 +22179,7 @@
         <v>1244</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="E912" s="2"/>
     </row>
@@ -22215,7 +22215,7 @@
         <v>1248</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="E916" s="2"/>
     </row>
@@ -22257,10 +22257,10 @@
     </row>
     <row r="921" spans="1:5">
       <c r="A921" s="2" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="E921" s="2"/>
     </row>
@@ -22293,19 +22293,19 @@
     </row>
     <row r="925" spans="1:5">
       <c r="A925" s="2" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="E925" s="2"/>
     </row>
     <row r="926" spans="1:5">
       <c r="A926" s="2" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="E926" s="2"/>
     </row>
@@ -22383,19 +22383,19 @@
     </row>
     <row r="935" spans="1:5">
       <c r="A935" s="2" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="E935" s="2"/>
     </row>
     <row r="936" spans="1:5">
       <c r="A936" s="2" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="E936" s="2"/>
     </row>
@@ -22440,7 +22440,7 @@
         <v>1267</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="E941" s="2"/>
     </row>
@@ -22455,10 +22455,10 @@
     </row>
     <row r="943" spans="1:5">
       <c r="A943" s="2" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="E943" s="2"/>
     </row>
@@ -22467,7 +22467,7 @@
         <v>1269</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="E944" s="2"/>
     </row>
@@ -22563,10 +22563,10 @@
     </row>
     <row r="955" spans="1:5">
       <c r="A955" s="2" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="E955" s="2"/>
     </row>
@@ -22611,7 +22611,7 @@
         <v>1279</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>4309</v>
+        <v>4307</v>
       </c>
       <c r="E960" s="2"/>
     </row>
@@ -22653,19 +22653,19 @@
     </row>
     <row r="965" spans="1:5">
       <c r="A965" s="2" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="B965" s="2" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="E965" s="2"/>
     </row>
     <row r="966" spans="1:5">
       <c r="A966" s="2" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="B966" s="2" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="E966" s="2"/>
     </row>
@@ -22674,7 +22674,7 @@
         <v>1282</v>
       </c>
       <c r="B967" s="2" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="E967" s="2"/>
     </row>
@@ -22707,10 +22707,10 @@
     </row>
     <row r="971" spans="1:5">
       <c r="A971" s="2" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="B971" s="2" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="E971" s="2"/>
     </row>
@@ -22725,19 +22725,19 @@
     </row>
     <row r="973" spans="1:5">
       <c r="A973" s="2" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="B973" s="2" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="E973" s="2"/>
     </row>
     <row r="974" spans="1:5">
       <c r="A974" s="2" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="B974" s="2" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="E974" s="2"/>
     </row>
@@ -22746,7 +22746,7 @@
         <v>1286</v>
       </c>
       <c r="B975" s="2" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="E975" s="2"/>
     </row>
@@ -22755,7 +22755,7 @@
         <v>1287</v>
       </c>
       <c r="B976" s="2" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="E976" s="2"/>
     </row>
@@ -22764,7 +22764,7 @@
         <v>1288</v>
       </c>
       <c r="B977" s="2" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="E977" s="2"/>
     </row>
@@ -22773,7 +22773,7 @@
         <v>1289</v>
       </c>
       <c r="B978" s="2" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="E978" s="2"/>
     </row>
@@ -22782,7 +22782,7 @@
         <v>1290</v>
       </c>
       <c r="B979" s="2" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="E979" s="2"/>
     </row>
@@ -22791,7 +22791,7 @@
         <v>1291</v>
       </c>
       <c r="B980" s="2" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="E980" s="2"/>
     </row>
@@ -22800,16 +22800,16 @@
         <v>1292</v>
       </c>
       <c r="B981" s="2" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="E981" s="2"/>
     </row>
     <row r="982" spans="1:5">
       <c r="A982" s="2" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="B982" s="2" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="E982" s="2"/>
     </row>
@@ -22833,10 +22833,10 @@
     </row>
     <row r="985" spans="1:5">
       <c r="A985" s="2" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="B985" s="2" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="E985" s="2"/>
     </row>
@@ -22872,7 +22872,7 @@
         <v>1298</v>
       </c>
       <c r="B989" s="2" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="E989" s="2"/>
     </row>
@@ -22881,7 +22881,7 @@
         <v>1299</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="E990" s="2"/>
     </row>
@@ -22899,7 +22899,7 @@
         <v>1301</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="E992" s="2"/>
     </row>
@@ -22917,7 +22917,7 @@
         <v>1303</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="E994" s="2"/>
     </row>
@@ -22935,7 +22935,7 @@
         <v>1305</v>
       </c>
       <c r="B996" s="2" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="E996" s="2"/>
     </row>
@@ -23061,7 +23061,7 @@
         <v>1318</v>
       </c>
       <c r="B1010" s="2" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="E1010" s="2"/>
     </row>
@@ -23070,7 +23070,7 @@
         <v>1319</v>
       </c>
       <c r="B1011" s="2" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="E1011" s="2"/>
     </row>
@@ -23079,7 +23079,7 @@
         <v>1320</v>
       </c>
       <c r="B1012" s="2" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="E1012" s="2"/>
     </row>
@@ -23088,7 +23088,7 @@
         <v>1320</v>
       </c>
       <c r="B1013" s="2" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="E1013" s="2"/>
     </row>
@@ -23124,7 +23124,7 @@
         <v>1324</v>
       </c>
       <c r="B1017" s="2" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="E1017" s="2"/>
     </row>
@@ -23178,7 +23178,7 @@
         <v>1330</v>
       </c>
       <c r="B1023" s="2" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="E1023" s="2"/>
     </row>
@@ -23196,7 +23196,7 @@
         <v>1332</v>
       </c>
       <c r="B1025" s="2" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="E1025" s="2"/>
     </row>
@@ -23259,7 +23259,7 @@
         <v>1339</v>
       </c>
       <c r="B1032" s="2" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="E1032" s="2"/>
     </row>
@@ -23268,7 +23268,7 @@
         <v>1340</v>
       </c>
       <c r="B1033" s="2" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="E1033" s="2"/>
     </row>
@@ -23286,7 +23286,7 @@
         <v>1342</v>
       </c>
       <c r="B1035" s="2" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="E1035" s="2"/>
     </row>
@@ -23295,7 +23295,7 @@
         <v>1343</v>
       </c>
       <c r="B1036" s="2" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="E1036" s="2"/>
     </row>
@@ -23313,7 +23313,7 @@
         <v>1345</v>
       </c>
       <c r="B1038" s="2" t="s">
-        <v>4296</v>
+        <v>4497</v>
       </c>
       <c r="E1038" s="2"/>
     </row>
@@ -23322,7 +23322,7 @@
         <v>1346</v>
       </c>
       <c r="B1039" s="2" t="s">
-        <v>4297</v>
+        <v>4295</v>
       </c>
       <c r="E1039" s="2"/>
     </row>
@@ -23349,7 +23349,7 @@
         <v>1349</v>
       </c>
       <c r="B1042" s="2" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="E1042" s="2"/>
     </row>
@@ -23367,7 +23367,7 @@
         <v>1351</v>
       </c>
       <c r="B1044" s="2" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="E1044" s="2"/>
     </row>
@@ -23394,7 +23394,7 @@
         <v>1354</v>
       </c>
       <c r="B1047" s="2" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="E1047" s="2"/>
     </row>
@@ -23409,10 +23409,10 @@
     </row>
     <row r="1049" spans="1:5">
       <c r="A1049" s="2" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="B1049" s="2" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="E1049" s="2"/>
     </row>
@@ -23448,7 +23448,7 @@
         <v>1358</v>
       </c>
       <c r="B1053" s="2" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="E1053" s="2"/>
     </row>
@@ -23511,7 +23511,7 @@
         <v>1364</v>
       </c>
       <c r="B1060" s="2" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="E1060" s="2"/>
     </row>
@@ -23646,7 +23646,7 @@
         <v>1370</v>
       </c>
       <c r="B1075" s="2" t="s">
-        <v>4466</v>
+        <v>4464</v>
       </c>
       <c r="E1075" s="2"/>
     </row>
@@ -23673,7 +23673,7 @@
         <v>1373</v>
       </c>
       <c r="B1078" s="2" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="E1078" s="2"/>
     </row>
@@ -23745,7 +23745,7 @@
         <v>1378</v>
       </c>
       <c r="B1086" s="2" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="E1086" s="2"/>
     </row>
@@ -23754,7 +23754,7 @@
         <v>1379</v>
       </c>
       <c r="B1087" s="2" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="E1087" s="2"/>
     </row>
@@ -23907,7 +23907,7 @@
         <v>1391</v>
       </c>
       <c r="B1104" s="2" t="s">
-        <v>4310</v>
+        <v>4308</v>
       </c>
       <c r="E1104" s="2"/>
     </row>
@@ -23916,7 +23916,7 @@
         <v>1392</v>
       </c>
       <c r="B1105" s="2" t="s">
-        <v>4311</v>
+        <v>4309</v>
       </c>
       <c r="E1105" s="2"/>
     </row>
@@ -24042,7 +24042,7 @@
         <v>1404</v>
       </c>
       <c r="B1119" s="2" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="E1119" s="2"/>
     </row>
@@ -24165,7 +24165,7 @@
     </row>
     <row r="1133" spans="1:5" ht="30">
       <c r="A1133" s="2" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="B1133" s="2" t="s">
         <v>3028</v>
@@ -24177,7 +24177,7 @@
         <v>1418</v>
       </c>
       <c r="B1134" s="2" t="s">
-        <v>4298</v>
+        <v>4296</v>
       </c>
       <c r="E1134" s="2"/>
     </row>
@@ -24195,7 +24195,7 @@
         <v>1420</v>
       </c>
       <c r="B1136" s="2" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="E1136" s="2"/>
     </row>
@@ -24204,7 +24204,7 @@
         <v>1420</v>
       </c>
       <c r="B1137" s="2" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="E1137" s="2"/>
     </row>
@@ -24213,7 +24213,7 @@
         <v>1421</v>
       </c>
       <c r="B1138" s="2" t="s">
-        <v>4299</v>
+        <v>4297</v>
       </c>
       <c r="E1138" s="2"/>
     </row>
@@ -24222,7 +24222,7 @@
         <v>1422</v>
       </c>
       <c r="B1139" s="2" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="E1139" s="2"/>
     </row>
@@ -24402,7 +24402,7 @@
         <v>1440</v>
       </c>
       <c r="B1159" s="2" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="E1159" s="2"/>
     </row>
@@ -24420,7 +24420,7 @@
         <v>1442</v>
       </c>
       <c r="B1161" s="2" t="s">
-        <v>4300</v>
+        <v>4298</v>
       </c>
       <c r="E1161" s="2"/>
     </row>
@@ -24429,7 +24429,7 @@
         <v>1443</v>
       </c>
       <c r="B1162" s="2" t="s">
-        <v>4429</v>
+        <v>4427</v>
       </c>
       <c r="E1162" s="2"/>
     </row>
@@ -24438,7 +24438,7 @@
         <v>1444</v>
       </c>
       <c r="B1163" s="2" t="s">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="E1163" s="2"/>
     </row>
@@ -24456,7 +24456,7 @@
         <v>1446</v>
       </c>
       <c r="B1165" s="2" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="E1165" s="2"/>
     </row>
@@ -24483,7 +24483,7 @@
         <v>1449</v>
       </c>
       <c r="B1168" s="2" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="E1168" s="2"/>
     </row>
@@ -24492,7 +24492,7 @@
         <v>1449</v>
       </c>
       <c r="B1169" s="2" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="E1169" s="2"/>
     </row>
@@ -24534,10 +24534,10 @@
     </row>
     <row r="1174" spans="1:5" ht="30">
       <c r="A1174" s="2" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="B1174" s="2" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="E1174" s="2"/>
     </row>
@@ -24546,7 +24546,7 @@
         <v>1454</v>
       </c>
       <c r="B1175" s="2" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="E1175" s="2"/>
     </row>
@@ -24582,7 +24582,7 @@
         <v>1457</v>
       </c>
       <c r="B1179" s="2" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="E1179" s="2"/>
     </row>
@@ -24591,7 +24591,7 @@
         <v>1458</v>
       </c>
       <c r="B1180" s="2" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
       <c r="E1180" s="2"/>
     </row>
@@ -24600,7 +24600,7 @@
         <v>1459</v>
       </c>
       <c r="B1181" s="2" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="E1181" s="2"/>
     </row>
@@ -24654,7 +24654,7 @@
         <v>1465</v>
       </c>
       <c r="B1187" s="2" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="E1187" s="2"/>
     </row>
@@ -24681,7 +24681,7 @@
         <v>1468</v>
       </c>
       <c r="B1190" s="2" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="E1190" s="2"/>
     </row>
@@ -24690,7 +24690,7 @@
         <v>1469</v>
       </c>
       <c r="B1191" s="2" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="E1191" s="2"/>
     </row>
@@ -24699,7 +24699,7 @@
         <v>1469</v>
       </c>
       <c r="B1192" s="2" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="E1192" s="2"/>
     </row>
@@ -24726,7 +24726,7 @@
         <v>1472</v>
       </c>
       <c r="B1195" s="2" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="E1195" s="2"/>
     </row>
@@ -24735,7 +24735,7 @@
         <v>1473</v>
       </c>
       <c r="B1196" s="2" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="E1196" s="2"/>
     </row>
@@ -24753,7 +24753,7 @@
         <v>1474</v>
       </c>
       <c r="B1198" s="2" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="E1198" s="2"/>
     </row>
@@ -24771,7 +24771,7 @@
         <v>1476</v>
       </c>
       <c r="B1200" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="E1200" s="2"/>
     </row>
@@ -24780,7 +24780,7 @@
         <v>1476</v>
       </c>
       <c r="B1201" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="E1201" s="2"/>
     </row>
@@ -24861,7 +24861,7 @@
         <v>1482</v>
       </c>
       <c r="B1210" s="2" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E1210" s="2"/>
     </row>
@@ -25023,7 +25023,7 @@
         <v>1498</v>
       </c>
       <c r="B1228" s="2" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="E1228" s="2"/>
     </row>
@@ -25041,7 +25041,7 @@
         <v>1500</v>
       </c>
       <c r="B1230" s="2" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="E1230" s="2"/>
     </row>
@@ -25050,7 +25050,7 @@
         <v>1501</v>
       </c>
       <c r="B1231" s="2" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="E1231" s="2"/>
     </row>
@@ -25059,7 +25059,7 @@
         <v>1502</v>
       </c>
       <c r="B1232" s="2" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="E1232" s="2"/>
     </row>
@@ -25068,7 +25068,7 @@
         <v>1503</v>
       </c>
       <c r="B1233" s="2" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="E1233" s="2"/>
     </row>
@@ -25077,7 +25077,7 @@
         <v>1504</v>
       </c>
       <c r="B1234" s="2" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="E1234" s="2"/>
     </row>
@@ -25086,7 +25086,7 @@
         <v>1504</v>
       </c>
       <c r="B1235" s="2" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="E1235" s="2"/>
     </row>
@@ -25095,7 +25095,7 @@
         <v>1505</v>
       </c>
       <c r="B1236" s="2" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="E1236" s="2"/>
     </row>
@@ -25104,7 +25104,7 @@
         <v>1506</v>
       </c>
       <c r="B1237" s="2" t="s">
-        <v>4312</v>
+        <v>4310</v>
       </c>
       <c r="E1237" s="2"/>
     </row>
@@ -25113,7 +25113,7 @@
         <v>1507</v>
       </c>
       <c r="B1238" s="2" t="s">
-        <v>4313</v>
+        <v>4311</v>
       </c>
       <c r="E1238" s="2"/>
     </row>
@@ -25122,7 +25122,7 @@
         <v>1508</v>
       </c>
       <c r="B1239" s="2" t="s">
-        <v>4314</v>
+        <v>4312</v>
       </c>
       <c r="E1239" s="2"/>
     </row>
@@ -25131,7 +25131,7 @@
         <v>1509</v>
       </c>
       <c r="B1240" s="2" t="s">
-        <v>4316</v>
+        <v>4314</v>
       </c>
       <c r="E1240" s="2"/>
     </row>
@@ -25140,7 +25140,7 @@
         <v>1510</v>
       </c>
       <c r="B1241" s="2" t="s">
-        <v>4315</v>
+        <v>4313</v>
       </c>
       <c r="E1241" s="2"/>
     </row>
@@ -25203,7 +25203,7 @@
         <v>1516</v>
       </c>
       <c r="B1248" s="2" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="E1248" s="2"/>
     </row>
@@ -25236,10 +25236,10 @@
     </row>
     <row r="1252" spans="1:5">
       <c r="A1252" s="2" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="B1252" s="2" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="E1252" s="2"/>
     </row>
@@ -25248,7 +25248,7 @@
         <v>1520</v>
       </c>
       <c r="B1253" s="2" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="E1253" s="2"/>
     </row>
@@ -25257,7 +25257,7 @@
         <v>1521</v>
       </c>
       <c r="B1254" s="2" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="E1254" s="2"/>
     </row>
@@ -25266,7 +25266,7 @@
         <v>1522</v>
       </c>
       <c r="B1255" s="2" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="E1255" s="2"/>
     </row>
@@ -25281,10 +25281,10 @@
     </row>
     <row r="1257" spans="1:5">
       <c r="A1257" s="2" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="B1257" s="2" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="E1257" s="2"/>
     </row>
@@ -25293,7 +25293,7 @@
         <v>1524</v>
       </c>
       <c r="B1258" s="2" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="E1258" s="2"/>
     </row>
@@ -25347,7 +25347,7 @@
         <v>1530</v>
       </c>
       <c r="B1264" s="2" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="E1264" s="2"/>
     </row>
@@ -25356,7 +25356,7 @@
         <v>1530</v>
       </c>
       <c r="B1265" s="2" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="E1265" s="2"/>
     </row>
@@ -25401,7 +25401,7 @@
         <v>1535</v>
       </c>
       <c r="B1270" s="2" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="E1270" s="2"/>
     </row>
@@ -25446,7 +25446,7 @@
         <v>1538</v>
       </c>
       <c r="B1275" s="2" t="s">
-        <v>4317</v>
+        <v>4315</v>
       </c>
       <c r="E1275" s="2"/>
     </row>
@@ -25518,7 +25518,7 @@
         <v>1540</v>
       </c>
       <c r="B1283" s="2" t="s">
-        <v>4318</v>
+        <v>4316</v>
       </c>
       <c r="E1283" s="2"/>
     </row>
@@ -25554,7 +25554,7 @@
         <v>1543</v>
       </c>
       <c r="B1287" s="2" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="E1287" s="2"/>
     </row>
@@ -25572,7 +25572,7 @@
         <v>1545</v>
       </c>
       <c r="B1289" s="2" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="E1289" s="2"/>
     </row>
@@ -25581,7 +25581,7 @@
         <v>1546</v>
       </c>
       <c r="B1290" s="2" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="E1290" s="2"/>
     </row>
@@ -25626,7 +25626,7 @@
         <v>1551</v>
       </c>
       <c r="B1295" s="2" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="E1295" s="2"/>
     </row>
@@ -25635,7 +25635,7 @@
         <v>1551</v>
       </c>
       <c r="B1296" s="2" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="E1296" s="2"/>
     </row>
@@ -25644,7 +25644,7 @@
         <v>1552</v>
       </c>
       <c r="B1297" s="2" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="E1297" s="2"/>
     </row>
@@ -25653,7 +25653,7 @@
         <v>1553</v>
       </c>
       <c r="B1298" s="2" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="E1298" s="2"/>
     </row>
@@ -25662,7 +25662,7 @@
         <v>1553</v>
       </c>
       <c r="B1299" s="2" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="E1299" s="2"/>
     </row>
@@ -25671,7 +25671,7 @@
         <v>1553</v>
       </c>
       <c r="B1300" s="2" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="E1300" s="2"/>
     </row>
@@ -25680,7 +25680,7 @@
         <v>1554</v>
       </c>
       <c r="B1301" s="2" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="E1301" s="2"/>
     </row>
@@ -25689,7 +25689,7 @@
         <v>1555</v>
       </c>
       <c r="B1302" s="2" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="E1302" s="2"/>
     </row>
@@ -25698,7 +25698,7 @@
         <v>1556</v>
       </c>
       <c r="B1303" s="2" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="E1303" s="2"/>
     </row>
@@ -25707,7 +25707,7 @@
         <v>1557</v>
       </c>
       <c r="B1304" s="2" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="E1304" s="2"/>
     </row>
@@ -25734,7 +25734,7 @@
         <v>1560</v>
       </c>
       <c r="B1307" s="2" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="E1307" s="2"/>
     </row>
@@ -25743,7 +25743,7 @@
         <v>1561</v>
       </c>
       <c r="B1308" s="2" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="E1308" s="2"/>
     </row>
@@ -25752,7 +25752,7 @@
         <v>1561</v>
       </c>
       <c r="B1309" s="2" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="E1309" s="2"/>
     </row>
@@ -25761,7 +25761,7 @@
         <v>1562</v>
       </c>
       <c r="B1310" s="2" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="E1310" s="2"/>
     </row>
@@ -25770,7 +25770,7 @@
         <v>1563</v>
       </c>
       <c r="B1311" s="2" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="E1311" s="2"/>
     </row>
@@ -25797,7 +25797,7 @@
         <v>1566</v>
       </c>
       <c r="B1314" s="2" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="E1314" s="2"/>
     </row>
@@ -25806,7 +25806,7 @@
         <v>1567</v>
       </c>
       <c r="B1315" s="2" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="E1315" s="2"/>
     </row>
@@ -25815,7 +25815,7 @@
         <v>1568</v>
       </c>
       <c r="B1316" s="2" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="E1316" s="2"/>
     </row>
@@ -25851,7 +25851,7 @@
         <v>1572</v>
       </c>
       <c r="B1320" s="2" t="s">
-        <v>4319</v>
+        <v>4317</v>
       </c>
       <c r="E1320" s="2"/>
     </row>
@@ -25860,7 +25860,7 @@
         <v>1573</v>
       </c>
       <c r="B1321" s="2" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="E1321" s="2"/>
     </row>
@@ -25869,7 +25869,7 @@
         <v>1574</v>
       </c>
       <c r="B1322" s="2" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="E1322" s="2"/>
     </row>
@@ -25896,7 +25896,7 @@
         <v>1577</v>
       </c>
       <c r="B1325" s="2" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="E1325" s="2"/>
     </row>
@@ -25905,7 +25905,7 @@
         <v>1578</v>
       </c>
       <c r="B1326" s="2" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="E1326" s="2"/>
     </row>
@@ -25914,7 +25914,7 @@
         <v>1579</v>
       </c>
       <c r="B1327" s="2" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="E1327" s="2"/>
     </row>
@@ -25923,7 +25923,7 @@
         <v>1580</v>
       </c>
       <c r="B1328" s="2" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="E1328" s="2"/>
     </row>
@@ -25932,7 +25932,7 @@
         <v>1581</v>
       </c>
       <c r="B1329" s="2" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="E1329" s="2"/>
     </row>
@@ -25941,7 +25941,7 @@
         <v>1582</v>
       </c>
       <c r="B1330" s="2" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="E1330" s="2"/>
     </row>
@@ -25986,7 +25986,7 @@
         <v>1586</v>
       </c>
       <c r="B1335" s="2" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="E1335" s="2"/>
     </row>
@@ -26004,7 +26004,7 @@
         <v>1588</v>
       </c>
       <c r="B1337" s="2" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="E1337" s="2"/>
     </row>
@@ -26100,7 +26100,7 @@
     </row>
     <row r="1348" spans="1:5">
       <c r="A1348" s="2" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
       <c r="B1348" s="2" t="s">
         <v>1595</v>
@@ -26184,7 +26184,7 @@
         <v>1599</v>
       </c>
       <c r="B1357" s="2" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="E1357" s="2"/>
     </row>
@@ -26193,7 +26193,7 @@
         <v>1600</v>
       </c>
       <c r="B1358" s="2" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="E1358" s="2"/>
     </row>
@@ -26253,10 +26253,10 @@
     </row>
     <row r="1365" spans="1:5">
       <c r="A1365" s="2" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="B1365" s="2" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="E1365" s="2"/>
     </row>
@@ -26274,7 +26274,7 @@
         <v>1606</v>
       </c>
       <c r="B1367" s="2" t="s">
-        <v>4320</v>
+        <v>4318</v>
       </c>
       <c r="E1367" s="2"/>
     </row>
@@ -26337,7 +26337,7 @@
         <v>1609</v>
       </c>
       <c r="B1374" s="2" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="E1374" s="2"/>
     </row>
@@ -26346,7 +26346,7 @@
         <v>1610</v>
       </c>
       <c r="B1375" s="2" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="E1375" s="2"/>
     </row>
@@ -26382,7 +26382,7 @@
         <v>1614</v>
       </c>
       <c r="B1379" s="2" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="E1379" s="2"/>
     </row>
@@ -26400,7 +26400,7 @@
         <v>1616</v>
       </c>
       <c r="B1381" s="2" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="E1381" s="2"/>
     </row>
@@ -26409,7 +26409,7 @@
         <v>1617</v>
       </c>
       <c r="B1382" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="E1382" s="2"/>
     </row>
@@ -26418,7 +26418,7 @@
         <v>1618</v>
       </c>
       <c r="B1383" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="E1383" s="2"/>
     </row>
@@ -26427,7 +26427,7 @@
         <v>1619</v>
       </c>
       <c r="B1384" s="2" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="E1384" s="2"/>
     </row>
@@ -26436,7 +26436,7 @@
         <v>1620</v>
       </c>
       <c r="B1385" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="E1385" s="2"/>
     </row>
@@ -26445,7 +26445,7 @@
         <v>1620</v>
       </c>
       <c r="B1386" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="E1386" s="2"/>
     </row>
@@ -26454,7 +26454,7 @@
         <v>1620</v>
       </c>
       <c r="B1387" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="E1387" s="2"/>
     </row>
@@ -26463,7 +26463,7 @@
         <v>1621</v>
       </c>
       <c r="B1388" s="2" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="E1388" s="2"/>
     </row>
@@ -26472,7 +26472,7 @@
         <v>1622</v>
       </c>
       <c r="B1389" s="2" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="E1389" s="2"/>
     </row>
@@ -26481,7 +26481,7 @@
         <v>1623</v>
       </c>
       <c r="B1390" s="2" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="E1390" s="2"/>
     </row>
@@ -26490,7 +26490,7 @@
         <v>1624</v>
       </c>
       <c r="B1391" s="2" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="E1391" s="2"/>
     </row>
@@ -26499,7 +26499,7 @@
         <v>1625</v>
       </c>
       <c r="B1392" s="2" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="E1392" s="2"/>
     </row>
@@ -26508,7 +26508,7 @@
         <v>1626</v>
       </c>
       <c r="B1393" s="2" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="E1393" s="2"/>
     </row>
@@ -26517,7 +26517,7 @@
         <v>1627</v>
       </c>
       <c r="B1394" s="2" t="s">
-        <v>4432</v>
+        <v>4430</v>
       </c>
       <c r="E1394" s="2"/>
     </row>
@@ -26715,7 +26715,7 @@
         <v>1647</v>
       </c>
       <c r="B1416" s="2" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="E1416" s="2"/>
     </row>
@@ -26742,7 +26742,7 @@
         <v>1650</v>
       </c>
       <c r="B1419" s="2" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="E1419" s="2"/>
     </row>
@@ -26796,7 +26796,7 @@
         <v>1653</v>
       </c>
       <c r="B1425" s="2" t="s">
-        <v>4321</v>
+        <v>4319</v>
       </c>
       <c r="E1425" s="2"/>
     </row>
@@ -26805,7 +26805,7 @@
         <v>1654</v>
       </c>
       <c r="B1426" s="2" t="s">
-        <v>4322</v>
+        <v>4320</v>
       </c>
       <c r="E1426" s="2"/>
     </row>
@@ -26814,7 +26814,7 @@
         <v>1654</v>
       </c>
       <c r="B1427" s="2" t="s">
-        <v>4322</v>
+        <v>4320</v>
       </c>
       <c r="E1427" s="2"/>
     </row>
@@ -26823,7 +26823,7 @@
         <v>1654</v>
       </c>
       <c r="B1428" s="2" t="s">
-        <v>4322</v>
+        <v>4320</v>
       </c>
       <c r="E1428" s="2"/>
     </row>
@@ -26832,7 +26832,7 @@
         <v>1654</v>
       </c>
       <c r="B1429" s="2" t="s">
-        <v>4322</v>
+        <v>4320</v>
       </c>
       <c r="E1429" s="2"/>
     </row>
@@ -26841,7 +26841,7 @@
         <v>1655</v>
       </c>
       <c r="B1430" s="2" t="s">
-        <v>4484</v>
+        <v>4482</v>
       </c>
       <c r="E1430" s="2"/>
     </row>
@@ -26940,7 +26940,7 @@
         <v>1666</v>
       </c>
       <c r="B1441" s="2" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="E1441" s="2"/>
     </row>
@@ -26958,7 +26958,7 @@
         <v>1668</v>
       </c>
       <c r="B1443" s="2" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="E1443" s="2"/>
     </row>
@@ -26967,7 +26967,7 @@
         <v>1669</v>
       </c>
       <c r="B1444" s="2" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="E1444" s="2"/>
     </row>
@@ -26976,10 +26976,10 @@
         <v>1670</v>
       </c>
       <c r="B1445" s="2" t="s">
-        <v>4443</v>
+        <v>4441</v>
       </c>
       <c r="D1445" s="2" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="E1445" s="2"/>
     </row>
@@ -26994,7 +26994,7 @@
     </row>
     <row r="1447" spans="1:5">
       <c r="A1447" s="2" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
       <c r="B1447" s="2" t="s">
         <v>3099</v>
@@ -27024,7 +27024,7 @@
         <v>1674</v>
       </c>
       <c r="B1450" s="2" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="E1450" s="2"/>
     </row>
@@ -27069,7 +27069,7 @@
         <v>1679</v>
       </c>
       <c r="B1455" s="2" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="E1455" s="2"/>
     </row>
@@ -27084,10 +27084,10 @@
     </row>
     <row r="1457" spans="1:5">
       <c r="A1457" s="2" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="B1457" s="2" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="E1457" s="2"/>
     </row>
@@ -27096,7 +27096,7 @@
         <v>1681</v>
       </c>
       <c r="B1458" s="2" t="s">
-        <v>4468</v>
+        <v>4466</v>
       </c>
       <c r="E1458" s="2"/>
     </row>
@@ -27123,7 +27123,7 @@
         <v>1684</v>
       </c>
       <c r="B1461" s="2" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="E1461" s="2"/>
     </row>
@@ -27132,7 +27132,7 @@
         <v>1685</v>
       </c>
       <c r="B1462" s="2" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="E1462" s="2"/>
     </row>
@@ -27159,7 +27159,7 @@
         <v>1688</v>
       </c>
       <c r="B1465" s="2" t="s">
-        <v>4433</v>
+        <v>4431</v>
       </c>
       <c r="E1465" s="2"/>
     </row>
@@ -27168,7 +27168,7 @@
         <v>1689</v>
       </c>
       <c r="B1466" s="2" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
       <c r="E1466" s="2"/>
     </row>
@@ -27192,10 +27192,10 @@
     </row>
     <row r="1469" spans="1:5">
       <c r="A1469" s="2" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="B1469" s="2" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="E1469" s="2"/>
     </row>
@@ -27285,7 +27285,7 @@
         <v>1696</v>
       </c>
       <c r="B1479" s="2" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="E1479" s="2"/>
     </row>
@@ -27321,7 +27321,7 @@
         <v>1699</v>
       </c>
       <c r="B1483" s="2" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="E1483" s="2"/>
     </row>
@@ -27330,7 +27330,7 @@
         <v>1700</v>
       </c>
       <c r="B1484" s="2" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="E1484" s="2"/>
     </row>
@@ -27366,7 +27366,7 @@
         <v>1704</v>
       </c>
       <c r="B1488" s="2" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="E1488" s="2"/>
     </row>
@@ -27375,7 +27375,7 @@
         <v>1704</v>
       </c>
       <c r="B1489" s="2" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="E1489" s="2"/>
     </row>
@@ -27384,7 +27384,7 @@
         <v>1705</v>
       </c>
       <c r="B1490" s="2" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="E1490" s="2"/>
     </row>
@@ -27411,7 +27411,7 @@
         <v>1708</v>
       </c>
       <c r="B1493" s="2" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="E1493" s="2"/>
     </row>
@@ -27501,7 +27501,7 @@
         <v>1717</v>
       </c>
       <c r="B1503" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="E1503" s="2"/>
     </row>
@@ -27519,7 +27519,7 @@
         <v>1718</v>
       </c>
       <c r="B1505" s="2" t="s">
-        <v>4434</v>
+        <v>4432</v>
       </c>
       <c r="E1505" s="2"/>
     </row>
@@ -27528,7 +27528,7 @@
         <v>1718</v>
       </c>
       <c r="B1506" s="2" t="s">
-        <v>4434</v>
+        <v>4432</v>
       </c>
       <c r="E1506" s="2"/>
     </row>
@@ -27537,7 +27537,7 @@
         <v>1719</v>
       </c>
       <c r="B1507" s="2" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="E1507" s="2"/>
     </row>
@@ -27582,7 +27582,7 @@
         <v>1724</v>
       </c>
       <c r="B1512" s="2" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="E1512" s="2"/>
     </row>
@@ -27591,7 +27591,7 @@
         <v>1725</v>
       </c>
       <c r="B1513" s="2" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="E1513" s="2"/>
     </row>
@@ -27600,7 +27600,7 @@
         <v>1726</v>
       </c>
       <c r="B1514" s="2" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="E1514" s="2"/>
     </row>
@@ -27609,7 +27609,7 @@
         <v>1726</v>
       </c>
       <c r="B1515" s="2" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="E1515" s="2"/>
     </row>
@@ -27618,7 +27618,7 @@
         <v>1727</v>
       </c>
       <c r="B1516" s="2" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="E1516" s="2"/>
     </row>
@@ -27627,7 +27627,7 @@
         <v>1728</v>
       </c>
       <c r="B1517" s="2" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="E1517" s="2"/>
     </row>
@@ -27636,7 +27636,7 @@
         <v>1729</v>
       </c>
       <c r="B1518" s="2" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="E1518" s="2"/>
     </row>
@@ -27645,7 +27645,7 @@
         <v>1730</v>
       </c>
       <c r="B1519" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="E1519" s="2"/>
     </row>
@@ -27663,7 +27663,7 @@
         <v>1732</v>
       </c>
       <c r="B1521" s="2" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="E1521" s="2"/>
     </row>
@@ -27672,7 +27672,7 @@
         <v>1733</v>
       </c>
       <c r="B1522" s="2" t="s">
-        <v>4419</v>
+        <v>4417</v>
       </c>
       <c r="E1522" s="2"/>
     </row>
@@ -27687,10 +27687,10 @@
     </row>
     <row r="1524" spans="1:5" ht="30">
       <c r="A1524" s="2" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="B1524" s="2" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="E1524" s="2"/>
     </row>
@@ -27753,7 +27753,7 @@
         <v>1738</v>
       </c>
       <c r="B1531" s="2" t="s">
-        <v>4323</v>
+        <v>4321</v>
       </c>
       <c r="E1531" s="2"/>
     </row>
@@ -27825,7 +27825,7 @@
         <v>1746</v>
       </c>
       <c r="B1539" s="2" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="E1539" s="2"/>
     </row>
@@ -27978,7 +27978,7 @@
         <v>1760</v>
       </c>
       <c r="B1556" s="2" t="s">
-        <v>4324</v>
+        <v>4322</v>
       </c>
       <c r="E1556" s="2"/>
     </row>
@@ -27987,7 +27987,7 @@
         <v>1761</v>
       </c>
       <c r="B1557" s="2" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="E1557" s="2"/>
     </row>
@@ -28005,7 +28005,7 @@
         <v>1763</v>
       </c>
       <c r="B1559" s="2" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="E1559" s="2"/>
     </row>
@@ -28095,7 +28095,7 @@
         <v>1771</v>
       </c>
       <c r="B1569" s="2" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="E1569" s="2"/>
     </row>
@@ -28122,7 +28122,7 @@
         <v>1774</v>
       </c>
       <c r="B1572" s="2" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="E1572" s="2"/>
     </row>
@@ -28167,7 +28167,7 @@
         <v>1779</v>
       </c>
       <c r="B1577" s="2" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="E1577" s="2"/>
     </row>
@@ -28266,7 +28266,7 @@
         <v>1790</v>
       </c>
       <c r="B1588" s="2" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="E1588" s="2"/>
     </row>
@@ -28275,7 +28275,7 @@
         <v>1791</v>
       </c>
       <c r="B1589" s="2" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="E1589" s="2"/>
     </row>
@@ -28284,7 +28284,7 @@
         <v>1792</v>
       </c>
       <c r="B1590" s="2" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="E1590" s="2"/>
     </row>
@@ -28293,7 +28293,7 @@
         <v>1792</v>
       </c>
       <c r="B1591" s="2" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="E1591" s="2"/>
     </row>
@@ -28302,7 +28302,7 @@
         <v>1793</v>
       </c>
       <c r="B1592" s="2" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="E1592" s="2"/>
     </row>
@@ -28311,7 +28311,7 @@
         <v>1794</v>
       </c>
       <c r="B1593" s="2" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="E1593" s="2"/>
     </row>
@@ -28320,7 +28320,7 @@
         <v>1795</v>
       </c>
       <c r="B1594" s="2" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="E1594" s="2"/>
     </row>
@@ -28329,7 +28329,7 @@
         <v>1796</v>
       </c>
       <c r="B1595" s="2" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="E1595" s="2"/>
     </row>
@@ -28338,7 +28338,7 @@
         <v>1797</v>
       </c>
       <c r="B1596" s="2" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="E1596" s="2"/>
     </row>
@@ -28347,7 +28347,7 @@
         <v>1798</v>
       </c>
       <c r="B1597" s="2" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="E1597" s="2"/>
     </row>
@@ -28401,7 +28401,7 @@
         <v>1803</v>
       </c>
       <c r="B1603" s="2" t="s">
-        <v>4497</v>
+        <v>4494</v>
       </c>
       <c r="E1603" s="2"/>
     </row>
@@ -28464,7 +28464,7 @@
         <v>1809</v>
       </c>
       <c r="B1610" s="2" t="s">
-        <v>4460</v>
+        <v>4458</v>
       </c>
       <c r="E1610" s="2"/>
     </row>
@@ -28473,7 +28473,7 @@
         <v>1809</v>
       </c>
       <c r="B1611" s="2" t="s">
-        <v>4460</v>
+        <v>4458</v>
       </c>
       <c r="E1611" s="2"/>
     </row>
@@ -28509,7 +28509,7 @@
         <v>1812</v>
       </c>
       <c r="B1615" s="2" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="E1615" s="2"/>
     </row>
@@ -28545,7 +28545,7 @@
         <v>1816</v>
       </c>
       <c r="B1619" s="2" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="E1619" s="2"/>
     </row>
@@ -28554,7 +28554,7 @@
         <v>1817</v>
       </c>
       <c r="B1620" s="2" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="E1620" s="2"/>
     </row>
@@ -28572,7 +28572,7 @@
         <v>1819</v>
       </c>
       <c r="B1622" s="2" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="E1622" s="2"/>
     </row>
@@ -28617,7 +28617,7 @@
         <v>1824</v>
       </c>
       <c r="B1627" s="2" t="s">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="E1627" s="2"/>
     </row>
@@ -28626,7 +28626,7 @@
         <v>1825</v>
       </c>
       <c r="B1628" s="2" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="E1628" s="2"/>
     </row>
@@ -28653,7 +28653,7 @@
         <v>1828</v>
       </c>
       <c r="B1631" s="2" t="s">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="E1631" s="2"/>
     </row>
@@ -28662,7 +28662,7 @@
         <v>1829</v>
       </c>
       <c r="B1632" s="2" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="E1632" s="2"/>
     </row>
@@ -28698,7 +28698,7 @@
         <v>1831</v>
       </c>
       <c r="B1636" s="2" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="E1636" s="2"/>
     </row>
@@ -28752,7 +28752,7 @@
         <v>1835</v>
       </c>
       <c r="B1642" s="2" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="E1642" s="2"/>
     </row>
@@ -28761,7 +28761,7 @@
         <v>1835</v>
       </c>
       <c r="B1643" s="2" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="E1643" s="2"/>
     </row>
@@ -28770,7 +28770,7 @@
         <v>1836</v>
       </c>
       <c r="B1644" s="2" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="E1644" s="2"/>
     </row>
@@ -28779,7 +28779,7 @@
         <v>1837</v>
       </c>
       <c r="B1645" s="2" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
       <c r="E1645" s="2"/>
     </row>
@@ -28788,7 +28788,7 @@
         <v>1838</v>
       </c>
       <c r="B1646" s="2" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
       <c r="E1646" s="2"/>
     </row>
@@ -28797,7 +28797,7 @@
         <v>1839</v>
       </c>
       <c r="B1647" s="2" t="s">
-        <v>4331</v>
+        <v>4329</v>
       </c>
       <c r="E1647" s="2"/>
     </row>
@@ -28833,7 +28833,7 @@
         <v>1842</v>
       </c>
       <c r="B1651" s="2" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
       <c r="E1651" s="2"/>
     </row>
@@ -28860,7 +28860,7 @@
         <v>1845</v>
       </c>
       <c r="B1654" s="2" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
       <c r="E1654" s="2"/>
     </row>
@@ -28923,7 +28923,7 @@
         <v>1852</v>
       </c>
       <c r="B1661" s="2" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
       <c r="E1661" s="2"/>
     </row>
@@ -28941,7 +28941,7 @@
         <v>1854</v>
       </c>
       <c r="B1663" s="2" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="E1663" s="2"/>
     </row>
@@ -28950,7 +28950,7 @@
         <v>1855</v>
       </c>
       <c r="B1664" s="2" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="E1664" s="2"/>
     </row>
@@ -28959,7 +28959,7 @@
         <v>1856</v>
       </c>
       <c r="B1665" s="2" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="E1665" s="2"/>
     </row>
@@ -28968,7 +28968,7 @@
         <v>1857</v>
       </c>
       <c r="B1666" s="2" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="E1666" s="2"/>
     </row>
@@ -29031,7 +29031,7 @@
         <v>1863</v>
       </c>
       <c r="B1673" s="2" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="E1673" s="2"/>
     </row>
@@ -29103,7 +29103,7 @@
         <v>1871</v>
       </c>
       <c r="B1681" s="2" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="E1681" s="2"/>
     </row>
@@ -29121,7 +29121,7 @@
         <v>1873</v>
       </c>
       <c r="B1683" s="2" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="E1683" s="2"/>
     </row>
@@ -29154,7 +29154,7 @@
     </row>
     <row r="1687" spans="1:5" ht="30">
       <c r="A1687" s="2" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="B1687" s="2" t="s">
         <v>3178</v>
@@ -29319,7 +29319,7 @@
         <v>1892</v>
       </c>
       <c r="B1705" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="E1705" s="2"/>
     </row>
@@ -29409,7 +29409,7 @@
         <v>1901</v>
       </c>
       <c r="B1715" s="2" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="E1715" s="2"/>
     </row>
@@ -29418,7 +29418,7 @@
         <v>1902</v>
       </c>
       <c r="B1716" s="2" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="E1716" s="2"/>
     </row>
@@ -29463,7 +29463,7 @@
         <v>1907</v>
       </c>
       <c r="B1721" s="2" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="E1721" s="2"/>
     </row>
@@ -29481,7 +29481,7 @@
         <v>1909</v>
       </c>
       <c r="B1723" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="E1723" s="2"/>
     </row>
@@ -29499,7 +29499,7 @@
         <v>1911</v>
       </c>
       <c r="B1725" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="E1725" s="2"/>
     </row>
@@ -29535,7 +29535,7 @@
         <v>1915</v>
       </c>
       <c r="B1729" s="2" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="E1729" s="2"/>
     </row>
@@ -29613,7 +29613,7 @@
     </row>
     <row r="1738" spans="1:5" ht="30">
       <c r="A1738" s="2" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
       <c r="B1738" s="2" t="s">
         <v>3206</v>
@@ -29643,7 +29643,7 @@
         <v>1926</v>
       </c>
       <c r="B1741" s="2" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="E1741" s="2"/>
     </row>
@@ -29661,7 +29661,7 @@
         <v>1928</v>
       </c>
       <c r="B1743" s="2" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="E1743" s="2"/>
     </row>
@@ -29688,7 +29688,7 @@
         <v>1931</v>
       </c>
       <c r="B1746" s="2" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="E1746" s="2"/>
     </row>
@@ -29703,7 +29703,7 @@
     </row>
     <row r="1748" spans="1:5" ht="30">
       <c r="A1748" s="2" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B1748" s="2" t="s">
         <v>3211</v>
@@ -29886,7 +29886,7 @@
         <v>1951</v>
       </c>
       <c r="B1768" s="2" t="s">
-        <v>4456</v>
+        <v>4454</v>
       </c>
       <c r="E1768" s="2"/>
     </row>
@@ -29904,7 +29904,7 @@
         <v>1953</v>
       </c>
       <c r="B1770" s="2" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="E1770" s="2"/>
     </row>
@@ -30003,7 +30003,7 @@
         <v>1963</v>
       </c>
       <c r="B1781" s="2" t="s">
-        <v>4454</v>
+        <v>4452</v>
       </c>
       <c r="E1781" s="2"/>
     </row>
@@ -30021,7 +30021,7 @@
         <v>1965</v>
       </c>
       <c r="B1783" s="2" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="E1783" s="2"/>
     </row>
@@ -30102,7 +30102,7 @@
         <v>1973</v>
       </c>
       <c r="B1792" s="2" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="E1792" s="2"/>
     </row>
@@ -30129,7 +30129,7 @@
         <v>1976</v>
       </c>
       <c r="B1795" s="2" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="E1795" s="2"/>
     </row>
@@ -30237,7 +30237,7 @@
         <v>1988</v>
       </c>
       <c r="B1807" s="2" t="s">
-        <v>4492</v>
+        <v>4490</v>
       </c>
       <c r="E1807" s="2"/>
     </row>
@@ -30246,7 +30246,7 @@
         <v>1988</v>
       </c>
       <c r="B1808" s="2" t="s">
-        <v>4492</v>
+        <v>4490</v>
       </c>
       <c r="E1808" s="2"/>
     </row>
@@ -30291,7 +30291,7 @@
         <v>1993</v>
       </c>
       <c r="B1813" s="2" t="s">
-        <v>4491</v>
+        <v>4489</v>
       </c>
       <c r="E1813" s="2"/>
     </row>
@@ -30300,7 +30300,7 @@
         <v>1994</v>
       </c>
       <c r="B1814" s="2" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="E1814" s="2"/>
     </row>
@@ -30345,7 +30345,7 @@
         <v>1999</v>
       </c>
       <c r="B1819" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="E1819" s="2"/>
     </row>
@@ -30408,7 +30408,7 @@
         <v>2006</v>
       </c>
       <c r="B1826" s="2" t="s">
-        <v>4435</v>
+        <v>4433</v>
       </c>
       <c r="E1826" s="2"/>
     </row>
@@ -30417,7 +30417,7 @@
         <v>2007</v>
       </c>
       <c r="B1827" s="2" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="E1827" s="2"/>
     </row>
@@ -30426,7 +30426,7 @@
         <v>2008</v>
       </c>
       <c r="B1828" s="2" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="E1828" s="2"/>
     </row>
@@ -30462,7 +30462,7 @@
         <v>2012</v>
       </c>
       <c r="B1832" s="2" t="s">
-        <v>4436</v>
+        <v>4434</v>
       </c>
       <c r="E1832" s="2"/>
     </row>
@@ -30471,7 +30471,7 @@
         <v>2013</v>
       </c>
       <c r="B1833" s="2" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="E1833" s="2"/>
     </row>
@@ -30498,7 +30498,7 @@
         <v>2015</v>
       </c>
       <c r="B1836" s="2" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="E1836" s="2"/>
     </row>
@@ -30525,7 +30525,7 @@
         <v>2018</v>
       </c>
       <c r="B1839" s="2" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="E1839" s="2"/>
     </row>
@@ -30561,7 +30561,7 @@
         <v>2022</v>
       </c>
       <c r="B1843" s="2" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="E1843" s="2"/>
     </row>
@@ -30576,10 +30576,10 @@
     </row>
     <row r="1845" spans="1:5">
       <c r="A1845" s="2" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="B1845" s="2" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="E1845" s="2"/>
     </row>
@@ -30588,7 +30588,7 @@
         <v>2024</v>
       </c>
       <c r="B1846" s="2" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="E1846" s="2"/>
     </row>
@@ -30597,7 +30597,7 @@
         <v>2025</v>
       </c>
       <c r="B1847" s="2" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="E1847" s="2"/>
     </row>
@@ -30624,16 +30624,16 @@
         <v>2028</v>
       </c>
       <c r="B1850" s="2" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="E1850" s="2"/>
     </row>
     <row r="1851" spans="1:5" ht="30">
       <c r="A1851" s="2" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B1851" s="2" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="E1851" s="2"/>
     </row>
@@ -30678,7 +30678,7 @@
         <v>2031</v>
       </c>
       <c r="B1856" s="2" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="E1856" s="2"/>
     </row>
@@ -30705,7 +30705,7 @@
         <v>2034</v>
       </c>
       <c r="B1859" s="2" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="E1859" s="2"/>
     </row>
@@ -30732,7 +30732,7 @@
         <v>2037</v>
       </c>
       <c r="B1862" s="2" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="E1862" s="2"/>
     </row>
@@ -30759,7 +30759,7 @@
         <v>2040</v>
       </c>
       <c r="B1865" s="2" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="E1865" s="2"/>
     </row>
@@ -30783,10 +30783,10 @@
     </row>
     <row r="1868" spans="1:5">
       <c r="A1868" s="2" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="B1868" s="2" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="E1868" s="2"/>
     </row>
@@ -30822,7 +30822,7 @@
         <v>2046</v>
       </c>
       <c r="B1872" s="2" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="E1872" s="2"/>
     </row>
@@ -30831,7 +30831,7 @@
         <v>2047</v>
       </c>
       <c r="B1873" s="2" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="E1873" s="2"/>
     </row>
@@ -30840,7 +30840,7 @@
         <v>2048</v>
       </c>
       <c r="B1874" s="2" t="s">
-        <v>4472</v>
+        <v>4470</v>
       </c>
       <c r="E1874" s="2"/>
     </row>
@@ -30939,7 +30939,7 @@
         <v>2057</v>
       </c>
       <c r="B1885" s="2" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="E1885" s="2"/>
     </row>
@@ -30957,7 +30957,7 @@
         <v>2059</v>
       </c>
       <c r="B1887" s="2" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="E1887" s="2"/>
     </row>
@@ -30966,7 +30966,7 @@
         <v>2060</v>
       </c>
       <c r="B1888" s="2" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="E1888" s="2"/>
     </row>
@@ -31011,7 +31011,7 @@
         <v>2062</v>
       </c>
       <c r="B1893" s="2" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="E1893" s="2"/>
     </row>
@@ -31038,7 +31038,7 @@
         <v>2065</v>
       </c>
       <c r="B1896" s="2" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="E1896" s="2"/>
     </row>
@@ -31065,7 +31065,7 @@
         <v>2068</v>
       </c>
       <c r="B1899" s="2" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="E1899" s="2"/>
     </row>
@@ -31101,7 +31101,7 @@
         <v>2072</v>
       </c>
       <c r="B1903" s="2" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="E1903" s="2"/>
     </row>
@@ -31116,19 +31116,19 @@
     </row>
     <row r="1905" spans="1:5">
       <c r="A1905" s="2" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="B1905" s="2" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="E1905" s="2"/>
     </row>
     <row r="1906" spans="1:5">
       <c r="A1906" s="2" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="B1906" s="2" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="E1906" s="2"/>
     </row>
@@ -31137,7 +31137,7 @@
         <v>2074</v>
       </c>
       <c r="B1907" s="2" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
       <c r="E1907" s="2"/>
     </row>
@@ -31164,7 +31164,7 @@
         <v>2077</v>
       </c>
       <c r="B1910" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="E1910" s="2"/>
     </row>
@@ -31173,7 +31173,7 @@
         <v>2077</v>
       </c>
       <c r="B1911" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="E1911" s="2"/>
     </row>
@@ -31182,7 +31182,7 @@
         <v>2078</v>
       </c>
       <c r="B1912" s="2" t="s">
-        <v>4439</v>
+        <v>4437</v>
       </c>
       <c r="E1912" s="2"/>
     </row>
@@ -31200,7 +31200,7 @@
         <v>2080</v>
       </c>
       <c r="B1914" s="2" t="s">
-        <v>4451</v>
+        <v>4449</v>
       </c>
       <c r="E1914" s="2"/>
     </row>
@@ -31218,7 +31218,7 @@
         <v>2082</v>
       </c>
       <c r="B1916" s="2" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="E1916" s="2"/>
     </row>
@@ -31227,13 +31227,13 @@
         <v>2082</v>
       </c>
       <c r="B1917" s="2" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="E1917" s="2"/>
     </row>
     <row r="1918" spans="1:5">
       <c r="A1918" s="2" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="B1918" s="2" t="s">
         <v>354</v>
@@ -31272,7 +31272,7 @@
         <v>2086</v>
       </c>
       <c r="B1922" s="2" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="E1922" s="2"/>
     </row>
@@ -31281,7 +31281,7 @@
         <v>2086</v>
       </c>
       <c r="B1923" s="2" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="E1923" s="2"/>
     </row>
@@ -31305,10 +31305,10 @@
     </row>
     <row r="1926" spans="1:5">
       <c r="A1926" s="2" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="B1926" s="2" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="E1926" s="2"/>
     </row>
@@ -31326,7 +31326,7 @@
         <v>2090</v>
       </c>
       <c r="B1928" s="2" t="s">
-        <v>4490</v>
+        <v>4488</v>
       </c>
       <c r="E1928" s="2"/>
     </row>
@@ -31335,7 +31335,7 @@
         <v>2091</v>
       </c>
       <c r="B1929" s="2" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="E1929" s="2"/>
     </row>
@@ -31344,7 +31344,7 @@
         <v>2091</v>
       </c>
       <c r="B1930" s="2" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="E1930" s="2"/>
     </row>
@@ -31416,7 +31416,7 @@
         <v>2099</v>
       </c>
       <c r="B1938" s="2" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="E1938" s="2"/>
     </row>
@@ -31461,7 +31461,7 @@
         <v>2104</v>
       </c>
       <c r="B1943" s="2" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="E1943" s="2"/>
     </row>
@@ -31485,10 +31485,10 @@
     </row>
     <row r="1946" spans="1:5" ht="30">
       <c r="A1946" s="2" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="B1946" s="2" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="E1946" s="2"/>
     </row>
@@ -31515,7 +31515,7 @@
         <v>2108</v>
       </c>
       <c r="B1949" s="2" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E1949" s="2"/>
     </row>
@@ -31533,7 +31533,7 @@
         <v>2110</v>
       </c>
       <c r="B1951" s="2" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
       <c r="E1951" s="2"/>
     </row>
@@ -31587,7 +31587,7 @@
         <v>2115</v>
       </c>
       <c r="B1957" s="2" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="E1957" s="2"/>
     </row>
@@ -31704,7 +31704,7 @@
         <v>2127</v>
       </c>
       <c r="B1970" s="2" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="E1970" s="2"/>
     </row>
@@ -31794,7 +31794,7 @@
         <v>2137</v>
       </c>
       <c r="B1980" s="2" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="E1980" s="2"/>
     </row>
@@ -31848,7 +31848,7 @@
         <v>2142</v>
       </c>
       <c r="B1986" s="2" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="E1986" s="2"/>
     </row>
@@ -31911,7 +31911,7 @@
         <v>2149</v>
       </c>
       <c r="B1993" s="2" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="E1993" s="2"/>
     </row>
@@ -32127,7 +32127,7 @@
         <v>2169</v>
       </c>
       <c r="B2017" s="2" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="E2017" s="2"/>
     </row>
@@ -32190,7 +32190,7 @@
         <v>2175</v>
       </c>
       <c r="B2024" s="2" t="s">
-        <v>4474</v>
+        <v>4472</v>
       </c>
       <c r="E2024" s="2"/>
     </row>
@@ -32217,7 +32217,7 @@
         <v>2178</v>
       </c>
       <c r="B2027" s="2" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="E2027" s="2"/>
     </row>
@@ -32226,7 +32226,7 @@
         <v>2179</v>
       </c>
       <c r="B2028" s="2" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="E2028" s="2"/>
     </row>
@@ -32235,7 +32235,7 @@
         <v>2179</v>
       </c>
       <c r="B2029" s="2" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="E2029" s="2"/>
     </row>
@@ -32244,7 +32244,7 @@
         <v>2180</v>
       </c>
       <c r="B2030" s="2" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="E2030" s="2"/>
     </row>
@@ -32298,7 +32298,7 @@
         <v>2186</v>
       </c>
       <c r="B2036" s="2" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
       <c r="E2036" s="2"/>
     </row>
@@ -32307,7 +32307,7 @@
         <v>2187</v>
       </c>
       <c r="B2037" s="2" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="E2037" s="2"/>
     </row>
@@ -32316,7 +32316,7 @@
         <v>2188</v>
       </c>
       <c r="B2038" s="2" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="E2038" s="2"/>
     </row>
@@ -32352,16 +32352,16 @@
         <v>2192</v>
       </c>
       <c r="B2042" s="2" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="E2042" s="2"/>
     </row>
     <row r="2043" spans="1:5" ht="30">
       <c r="A2043" s="2" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="B2043" s="2" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="E2043" s="2"/>
     </row>
@@ -32415,7 +32415,7 @@
         <v>2197</v>
       </c>
       <c r="B2049" s="2" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="E2049" s="2"/>
     </row>
@@ -32469,7 +32469,7 @@
         <v>2203</v>
       </c>
       <c r="B2055" s="2" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="E2055" s="2"/>
     </row>
@@ -32505,7 +32505,7 @@
         <v>2207</v>
       </c>
       <c r="B2059" s="2" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="E2059" s="2"/>
     </row>
@@ -32529,10 +32529,10 @@
     </row>
     <row r="2062" spans="1:5" ht="30">
       <c r="A2062" s="2" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="B2062" s="2" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="E2062" s="2"/>
     </row>
@@ -32541,7 +32541,7 @@
         <v>2210</v>
       </c>
       <c r="B2063" s="2" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="E2063" s="2"/>
     </row>
@@ -32559,7 +32559,7 @@
         <v>2212</v>
       </c>
       <c r="B2065" s="2" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="E2065" s="2"/>
     </row>
@@ -32568,7 +32568,7 @@
         <v>2213</v>
       </c>
       <c r="B2066" s="2" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="E2066" s="2"/>
     </row>
@@ -32604,7 +32604,7 @@
         <v>2217</v>
       </c>
       <c r="B2070" s="2" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="E2070" s="2"/>
     </row>
@@ -32649,7 +32649,7 @@
         <v>2222</v>
       </c>
       <c r="B2075" s="2" t="s">
-        <v>4437</v>
+        <v>4435</v>
       </c>
       <c r="E2075" s="2"/>
     </row>
@@ -32667,7 +32667,7 @@
         <v>2224</v>
       </c>
       <c r="B2077" s="2" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="E2077" s="2"/>
     </row>
@@ -32676,7 +32676,7 @@
         <v>2225</v>
       </c>
       <c r="B2078" s="2" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="E2078" s="2"/>
     </row>
@@ -32694,7 +32694,7 @@
         <v>2227</v>
       </c>
       <c r="B2080" s="2" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="E2080" s="2"/>
     </row>
@@ -32793,7 +32793,7 @@
         <v>2236</v>
       </c>
       <c r="B2091" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="E2091" s="2"/>
     </row>
@@ -32820,7 +32820,7 @@
         <v>2239</v>
       </c>
       <c r="B2094" s="2" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="E2094" s="2"/>
     </row>
@@ -32937,7 +32937,7 @@
         <v>2249</v>
       </c>
       <c r="B2107" s="2" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="E2107" s="2"/>
     </row>
@@ -32955,7 +32955,7 @@
         <v>2251</v>
       </c>
       <c r="B2109" s="2" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
       <c r="E2109" s="2"/>
     </row>
@@ -33000,7 +33000,7 @@
         <v>2256</v>
       </c>
       <c r="B2114" s="2" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="E2114" s="2"/>
     </row>
@@ -33018,7 +33018,7 @@
         <v>2258</v>
       </c>
       <c r="B2116" s="2" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="E2116" s="2"/>
     </row>
@@ -33045,7 +33045,7 @@
         <v>2261</v>
       </c>
       <c r="B2119" s="2" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="E2119" s="2"/>
     </row>
@@ -33099,7 +33099,7 @@
         <v>2267</v>
       </c>
       <c r="B2125" s="2" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="E2125" s="2"/>
     </row>
@@ -33108,7 +33108,7 @@
         <v>2268</v>
       </c>
       <c r="B2126" s="2" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="E2126" s="2"/>
     </row>
@@ -33135,7 +33135,7 @@
         <v>2271</v>
       </c>
       <c r="B2129" s="2" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="E2129" s="2"/>
     </row>
@@ -33144,7 +33144,7 @@
         <v>2271</v>
       </c>
       <c r="B2130" s="2" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="E2130" s="2"/>
     </row>
@@ -33153,7 +33153,7 @@
         <v>2272</v>
       </c>
       <c r="B2131" s="2" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="E2131" s="2"/>
     </row>
@@ -33288,7 +33288,7 @@
         <v>2286</v>
       </c>
       <c r="B2146" s="2" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="E2146" s="2"/>
     </row>
@@ -33297,7 +33297,7 @@
         <v>2287</v>
       </c>
       <c r="B2147" s="2" t="s">
-        <v>4458</v>
+        <v>4456</v>
       </c>
       <c r="E2147" s="2"/>
     </row>
@@ -33306,7 +33306,7 @@
         <v>2288</v>
       </c>
       <c r="B2148" s="2" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="E2148" s="2"/>
     </row>
@@ -33315,7 +33315,7 @@
         <v>2289</v>
       </c>
       <c r="B2149" s="2" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="E2149" s="2"/>
     </row>
@@ -33348,7 +33348,7 @@
     </row>
     <row r="2153" spans="1:5">
       <c r="A2153" s="2" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
       <c r="B2153" s="2" t="s">
         <v>3588</v>
@@ -33360,7 +33360,7 @@
         <v>2293</v>
       </c>
       <c r="B2154" s="2" t="s">
-        <v>4440</v>
+        <v>4438</v>
       </c>
       <c r="E2154" s="2"/>
     </row>
@@ -33450,7 +33450,7 @@
         <v>2303</v>
       </c>
       <c r="B2164" s="2" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="E2164" s="2"/>
     </row>
@@ -33459,7 +33459,7 @@
         <v>2304</v>
       </c>
       <c r="B2165" s="2" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="E2165" s="2"/>
     </row>
@@ -33513,7 +33513,7 @@
         <v>2310</v>
       </c>
       <c r="B2171" s="2" t="s">
-        <v>4411</v>
+        <v>4409</v>
       </c>
       <c r="E2171" s="2"/>
     </row>
@@ -33594,7 +33594,7 @@
         <v>2319</v>
       </c>
       <c r="B2180" s="2" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="E2180" s="2"/>
     </row>
@@ -33612,7 +33612,7 @@
         <v>2321</v>
       </c>
       <c r="B2182" s="2" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="E2182" s="2"/>
     </row>
@@ -33648,7 +33648,7 @@
         <v>2325</v>
       </c>
       <c r="B2186" s="2" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="E2186" s="2"/>
     </row>
@@ -33684,7 +33684,7 @@
         <v>2329</v>
       </c>
       <c r="B2190" s="2" t="s">
-        <v>4493</v>
+        <v>4491</v>
       </c>
       <c r="E2190" s="2"/>
     </row>
@@ -33693,7 +33693,7 @@
         <v>2330</v>
       </c>
       <c r="B2191" s="2" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="E2191" s="2"/>
     </row>
@@ -33702,7 +33702,7 @@
         <v>2330</v>
       </c>
       <c r="B2192" s="2" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="E2192" s="2"/>
     </row>
@@ -33711,7 +33711,7 @@
         <v>2331</v>
       </c>
       <c r="B2193" s="2" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="E2193" s="2"/>
     </row>
@@ -33720,7 +33720,7 @@
         <v>2332</v>
       </c>
       <c r="B2194" s="2" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="E2194" s="2"/>
     </row>
@@ -33729,7 +33729,7 @@
         <v>2333</v>
       </c>
       <c r="B2195" s="2" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="E2195" s="2"/>
     </row>
@@ -33765,7 +33765,7 @@
         <v>2337</v>
       </c>
       <c r="B2199" s="2" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="E2199" s="2"/>
     </row>
@@ -33774,7 +33774,7 @@
         <v>2338</v>
       </c>
       <c r="B2200" s="2" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="E2200" s="2"/>
     </row>
@@ -33837,7 +33837,7 @@
         <v>2345</v>
       </c>
       <c r="B2207" s="2" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="E2207" s="2"/>
     </row>
@@ -33855,7 +33855,7 @@
         <v>2347</v>
       </c>
       <c r="B2209" s="2" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="E2209" s="2"/>
     </row>
@@ -33873,7 +33873,7 @@
         <v>2349</v>
       </c>
       <c r="B2211" s="2" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="E2211" s="2"/>
     </row>
@@ -33882,7 +33882,7 @@
         <v>2350</v>
       </c>
       <c r="B2212" s="2" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="E2212" s="2"/>
     </row>
@@ -33891,7 +33891,7 @@
         <v>2351</v>
       </c>
       <c r="B2213" s="2" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="E2213" s="2"/>
     </row>
@@ -33936,7 +33936,7 @@
         <v>2355</v>
       </c>
       <c r="B2218" s="2" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="E2218" s="2"/>
     </row>
@@ -33945,7 +33945,7 @@
         <v>2356</v>
       </c>
       <c r="B2219" s="2" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="E2219" s="2"/>
     </row>
@@ -33954,7 +33954,7 @@
         <v>2357</v>
       </c>
       <c r="B2220" s="2" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="E2220" s="2"/>
     </row>
@@ -33981,7 +33981,7 @@
         <v>2360</v>
       </c>
       <c r="B2223" s="2" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="E2223" s="2"/>
     </row>
@@ -33990,7 +33990,7 @@
         <v>2361</v>
       </c>
       <c r="B2224" s="2" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
       <c r="E2224" s="2"/>
     </row>
@@ -33999,7 +33999,7 @@
         <v>2362</v>
       </c>
       <c r="B2225" s="2" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="E2225" s="2"/>
     </row>
@@ -34026,7 +34026,7 @@
         <v>2365</v>
       </c>
       <c r="B2228" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="E2228" s="2"/>
     </row>
@@ -34035,7 +34035,7 @@
         <v>2366</v>
       </c>
       <c r="B2229" s="2" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E2229" s="2"/>
     </row>
@@ -34053,7 +34053,7 @@
         <v>2368</v>
       </c>
       <c r="B2231" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="E2231" s="2"/>
     </row>
@@ -34068,7 +34068,7 @@
     </row>
     <row r="2233" spans="1:5" ht="30">
       <c r="A2233" s="2" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B2233" s="2" t="s">
         <v>3596</v>
@@ -34080,7 +34080,7 @@
         <v>2370</v>
       </c>
       <c r="B2234" s="2" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="E2234" s="2"/>
     </row>
@@ -34125,7 +34125,7 @@
         <v>2375</v>
       </c>
       <c r="B2239" s="2" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="E2239" s="2"/>
     </row>
@@ -34143,7 +34143,7 @@
         <v>2377</v>
       </c>
       <c r="B2241" s="2" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="E2241" s="2"/>
     </row>
@@ -34152,7 +34152,7 @@
         <v>2378</v>
       </c>
       <c r="B2242" s="2" t="s">
-        <v>4423</v>
+        <v>4421</v>
       </c>
       <c r="E2242" s="2"/>
     </row>
@@ -34233,7 +34233,7 @@
         <v>2385</v>
       </c>
       <c r="B2251" s="2" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="E2251" s="2"/>
     </row>
@@ -34251,7 +34251,7 @@
         <v>2387</v>
       </c>
       <c r="B2253" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="E2253" s="2"/>
     </row>
@@ -34269,7 +34269,7 @@
         <v>2389</v>
       </c>
       <c r="B2255" s="2" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E2255" s="2"/>
     </row>
@@ -34278,7 +34278,7 @@
         <v>2390</v>
       </c>
       <c r="B2256" s="2" t="s">
-        <v>4482</v>
+        <v>4480</v>
       </c>
       <c r="E2256" s="2"/>
     </row>
@@ -34296,7 +34296,7 @@
         <v>2392</v>
       </c>
       <c r="B2258" s="2" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="E2258" s="2"/>
     </row>
@@ -34305,7 +34305,7 @@
         <v>2392</v>
       </c>
       <c r="B2259" s="2" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="E2259" s="2"/>
     </row>
@@ -34314,7 +34314,7 @@
         <v>2393</v>
       </c>
       <c r="B2260" s="2" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="E2260" s="2"/>
     </row>
@@ -34323,7 +34323,7 @@
         <v>2393</v>
       </c>
       <c r="B2261" s="2" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="E2261" s="2"/>
     </row>
@@ -34341,7 +34341,7 @@
         <v>2395</v>
       </c>
       <c r="B2263" s="2" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="E2263" s="2"/>
     </row>
@@ -34368,7 +34368,7 @@
         <v>2398</v>
       </c>
       <c r="B2266" s="2" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="E2266" s="2"/>
     </row>
@@ -34404,7 +34404,7 @@
         <v>2402</v>
       </c>
       <c r="B2270" s="2" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
       <c r="E2270" s="2"/>
     </row>
@@ -34413,7 +34413,7 @@
         <v>2402</v>
       </c>
       <c r="B2271" s="2" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="E2271" s="2"/>
     </row>
@@ -34512,7 +34512,7 @@
         <v>2412</v>
       </c>
       <c r="B2282" s="2" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="E2282" s="2"/>
     </row>
@@ -34521,7 +34521,7 @@
         <v>2413</v>
       </c>
       <c r="B2283" s="2" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="E2283" s="2"/>
     </row>
@@ -34566,7 +34566,7 @@
         <v>2418</v>
       </c>
       <c r="B2288" s="2" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="E2288" s="2"/>
     </row>
@@ -34638,7 +34638,7 @@
         <v>2426</v>
       </c>
       <c r="B2296" s="2" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="E2296" s="2"/>
     </row>
@@ -34728,7 +34728,7 @@
         <v>2434</v>
       </c>
       <c r="B2306" s="2" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="E2306" s="2"/>
     </row>
@@ -34737,7 +34737,7 @@
         <v>2434</v>
       </c>
       <c r="B2307" s="2" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="E2307" s="2"/>
     </row>
@@ -34746,7 +34746,7 @@
         <v>2435</v>
       </c>
       <c r="B2308" s="2" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="E2308" s="2"/>
     </row>
@@ -34755,7 +34755,7 @@
         <v>2436</v>
       </c>
       <c r="B2309" s="2" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="E2309" s="2"/>
     </row>
@@ -34782,7 +34782,7 @@
         <v>2439</v>
       </c>
       <c r="B2312" s="2" t="s">
-        <v>4441</v>
+        <v>4439</v>
       </c>
       <c r="E2312" s="2"/>
     </row>
@@ -34791,7 +34791,7 @@
         <v>2440</v>
       </c>
       <c r="B2313" s="2" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="E2313" s="2"/>
     </row>
@@ -34800,7 +34800,7 @@
         <v>2440</v>
       </c>
       <c r="B2314" s="2" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="E2314" s="2"/>
     </row>
@@ -34836,7 +34836,7 @@
         <v>2444</v>
       </c>
       <c r="B2318" s="2" t="s">
-        <v>4467</v>
+        <v>4465</v>
       </c>
       <c r="E2318" s="2"/>
     </row>
@@ -34845,7 +34845,7 @@
         <v>2445</v>
       </c>
       <c r="B2319" s="2" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="E2319" s="2"/>
     </row>
@@ -34896,10 +34896,10 @@
     </row>
     <row r="2325" spans="1:5" ht="30">
       <c r="A2325" s="2" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="B2325" s="2" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="E2325" s="2"/>
     </row>
@@ -34917,7 +34917,7 @@
         <v>2451</v>
       </c>
       <c r="B2327" s="2" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="E2327" s="2"/>
     </row>
@@ -34962,7 +34962,7 @@
         <v>2456</v>
       </c>
       <c r="B2332" s="2" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="E2332" s="2"/>
     </row>
@@ -34971,7 +34971,7 @@
         <v>2457</v>
       </c>
       <c r="B2333" s="2" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="E2333" s="2"/>
     </row>
@@ -34980,7 +34980,7 @@
         <v>2458</v>
       </c>
       <c r="B2334" s="2" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="E2334" s="2"/>
     </row>
@@ -34989,7 +34989,7 @@
         <v>2459</v>
       </c>
       <c r="B2335" s="2" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="E2335" s="2"/>
     </row>
@@ -35016,7 +35016,7 @@
         <v>2461</v>
       </c>
       <c r="B2338" s="2" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="E2338" s="2"/>
     </row>
@@ -35025,7 +35025,7 @@
         <v>2462</v>
       </c>
       <c r="B2339" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="E2339" s="2"/>
     </row>
@@ -35034,7 +35034,7 @@
         <v>2463</v>
       </c>
       <c r="B2340" s="2" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="E2340" s="2"/>
     </row>
@@ -35061,7 +35061,7 @@
         <v>2466</v>
       </c>
       <c r="B2343" s="2" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="E2343" s="2"/>
     </row>
@@ -35106,7 +35106,7 @@
         <v>2470</v>
       </c>
       <c r="B2348" s="2" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
       <c r="E2348" s="2"/>
     </row>
@@ -35124,7 +35124,7 @@
         <v>2472</v>
       </c>
       <c r="B2350" s="2" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="E2350" s="2"/>
     </row>
@@ -35142,7 +35142,7 @@
         <v>2474</v>
       </c>
       <c r="B2352" s="2" t="s">
-        <v>4459</v>
+        <v>4457</v>
       </c>
       <c r="E2352" s="2"/>
     </row>
@@ -35151,7 +35151,7 @@
         <v>2474</v>
       </c>
       <c r="B2353" s="2" t="s">
-        <v>4459</v>
+        <v>4457</v>
       </c>
       <c r="E2353" s="2"/>
     </row>
@@ -35160,7 +35160,7 @@
         <v>2475</v>
       </c>
       <c r="B2354" s="2" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="E2354" s="2"/>
     </row>
@@ -35196,7 +35196,7 @@
         <v>2479</v>
       </c>
       <c r="B2358" s="2" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="E2358" s="2"/>
     </row>
@@ -35223,7 +35223,7 @@
         <v>2482</v>
       </c>
       <c r="B2361" s="2" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="E2361" s="2"/>
     </row>
@@ -35241,7 +35241,7 @@
         <v>2484</v>
       </c>
       <c r="B2363" s="2" t="s">
-        <v>4452</v>
+        <v>4450</v>
       </c>
       <c r="E2363" s="2"/>
     </row>
@@ -35303,10 +35303,10 @@
     </row>
     <row r="2370" spans="1:5" ht="30">
       <c r="A2370" s="2" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="B2370" s="2" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="E2370" s="2"/>
     </row>
@@ -35345,7 +35345,7 @@
         <v>2493</v>
       </c>
       <c r="B2374" s="2" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="C2374" s="3"/>
       <c r="E2374" s="2"/>
@@ -35375,7 +35375,7 @@
         <v>2496</v>
       </c>
       <c r="B2377" s="2" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="E2377" s="2"/>
     </row>
@@ -35394,7 +35394,7 @@
         <v>2498</v>
       </c>
       <c r="B2379" s="2" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="E2379" s="2"/>
     </row>
@@ -35413,7 +35413,7 @@
         <v>2500</v>
       </c>
       <c r="B2381" s="2" t="s">
-        <v>4455</v>
+        <v>4453</v>
       </c>
       <c r="E2381" s="2"/>
     </row>
@@ -35431,7 +35431,7 @@
         <v>2502</v>
       </c>
       <c r="B2383" s="2" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="E2383" s="2"/>
     </row>
@@ -35440,7 +35440,7 @@
         <v>2503</v>
       </c>
       <c r="B2384" s="2" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="D2384" s="3"/>
       <c r="E2384" s="3"/>
@@ -35450,7 +35450,7 @@
         <v>2504</v>
       </c>
       <c r="B2385" s="2" t="s">
-        <v>4494</v>
+        <v>4492</v>
       </c>
       <c r="D2385" s="3"/>
       <c r="E2385" s="3"/>
@@ -35509,13 +35509,13 @@
         <v>2510</v>
       </c>
       <c r="B2391" s="2" t="s">
-        <v>4471</v>
+        <v>4469</v>
       </c>
       <c r="E2391" s="2"/>
     </row>
     <row r="2392" spans="1:5" ht="30">
       <c r="A2392" s="2" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="B2392" s="2" t="s">
         <v>3464</v>
@@ -35545,7 +35545,7 @@
         <v>2513</v>
       </c>
       <c r="B2395" s="2" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="E2395" s="2"/>
     </row>
@@ -35554,7 +35554,7 @@
         <v>2514</v>
       </c>
       <c r="B2396" s="2" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="E2396" s="2"/>
     </row>
@@ -35572,7 +35572,7 @@
         <v>2516</v>
       </c>
       <c r="B2398" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="E2398" s="2"/>
     </row>
@@ -35635,7 +35635,7 @@
         <v>2523</v>
       </c>
       <c r="B2405" s="2" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="E2405" s="2"/>
     </row>
@@ -35653,7 +35653,7 @@
         <v>2525</v>
       </c>
       <c r="B2407" s="2" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="E2407" s="2"/>
     </row>
@@ -35725,7 +35725,7 @@
         <v>2533</v>
       </c>
       <c r="B2415" s="2" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="E2415" s="2"/>
     </row>
@@ -35734,7 +35734,7 @@
         <v>2534</v>
       </c>
       <c r="B2416" s="4" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="E2416" s="2"/>
     </row>
@@ -35743,7 +35743,7 @@
         <v>2535</v>
       </c>
       <c r="B2417" s="2" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
       <c r="E2417" s="2"/>
     </row>
@@ -35752,7 +35752,7 @@
         <v>2536</v>
       </c>
       <c r="B2418" s="4" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="E2418" s="2"/>
     </row>
@@ -35761,7 +35761,7 @@
         <v>2536</v>
       </c>
       <c r="B2419" s="2" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="E2419" s="2"/>
     </row>
@@ -35888,7 +35888,7 @@
         <v>2542</v>
       </c>
       <c r="B2434" s="2" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
       <c r="E2434" s="2"/>
     </row>
@@ -35897,7 +35897,7 @@
         <v>680</v>
       </c>
       <c r="B2435" s="2" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="E2435" s="2"/>
     </row>
@@ -35942,7 +35942,7 @@
         <v>2547</v>
       </c>
       <c r="B2440" s="2" t="s">
-        <v>4341</v>
+        <v>4339</v>
       </c>
       <c r="E2440" s="2"/>
     </row>
@@ -35969,7 +35969,7 @@
         <v>2550</v>
       </c>
       <c r="B2443" s="2" t="s">
-        <v>4420</v>
+        <v>4418</v>
       </c>
       <c r="E2443" s="2"/>
     </row>
@@ -35978,7 +35978,7 @@
         <v>2551</v>
       </c>
       <c r="B2444" s="2" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
       <c r="E2444" s="2"/>
     </row>
@@ -36014,7 +36014,7 @@
         <v>2554</v>
       </c>
       <c r="B2448" s="2" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
       <c r="E2448" s="2"/>
     </row>
@@ -36023,7 +36023,7 @@
         <v>2555</v>
       </c>
       <c r="B2449" s="2" t="s">
-        <v>4344</v>
+        <v>4342</v>
       </c>
       <c r="E2449" s="2"/>
     </row>
@@ -36050,7 +36050,7 @@
         <v>2558</v>
       </c>
       <c r="B2452" s="2" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
       <c r="E2452" s="2"/>
     </row>
@@ -36068,7 +36068,7 @@
         <v>2560</v>
       </c>
       <c r="B2454" s="2" t="s">
-        <v>4345</v>
+        <v>4343</v>
       </c>
       <c r="E2454" s="2"/>
     </row>
@@ -36167,7 +36167,7 @@
         <v>2571</v>
       </c>
       <c r="B2465" s="2" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="E2465" s="2"/>
     </row>
@@ -36185,7 +36185,7 @@
         <v>2573</v>
       </c>
       <c r="B2467" s="2" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="E2467" s="2"/>
     </row>
@@ -36212,7 +36212,7 @@
         <v>2576</v>
       </c>
       <c r="B2470" s="2" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="E2470" s="2"/>
     </row>
@@ -36257,7 +36257,7 @@
         <v>2580</v>
       </c>
       <c r="B2475" s="2" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
       <c r="E2475" s="2"/>
     </row>
@@ -36410,7 +36410,7 @@
         <v>2595</v>
       </c>
       <c r="B2492" s="2" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="E2492" s="2"/>
     </row>
@@ -36419,7 +36419,7 @@
         <v>2596</v>
       </c>
       <c r="B2493" s="2" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="E2493" s="2"/>
     </row>
@@ -36437,7 +36437,7 @@
         <v>2598</v>
       </c>
       <c r="B2495" s="2" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="E2495" s="2"/>
     </row>
@@ -36545,7 +36545,7 @@
         <v>2605</v>
       </c>
       <c r="B2507" s="2" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="E2507" s="2"/>
     </row>
@@ -36554,7 +36554,7 @@
         <v>2606</v>
       </c>
       <c r="B2508" s="2" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="E2508" s="2"/>
     </row>
@@ -36563,7 +36563,7 @@
         <v>2607</v>
       </c>
       <c r="B2509" s="2" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
       <c r="E2509" s="2"/>
     </row>
@@ -36572,7 +36572,7 @@
         <v>2608</v>
       </c>
       <c r="B2510" s="2" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="E2510" s="2"/>
     </row>
@@ -36617,7 +36617,7 @@
         <v>2613</v>
       </c>
       <c r="B2515" s="2" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
       <c r="E2515" s="2"/>
     </row>
@@ -36626,7 +36626,7 @@
         <v>2614</v>
       </c>
       <c r="B2516" s="2" t="s">
-        <v>4355</v>
+        <v>4353</v>
       </c>
       <c r="E2516" s="2"/>
     </row>
@@ -36635,7 +36635,7 @@
         <v>2615</v>
       </c>
       <c r="B2517" s="2" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
       <c r="E2517" s="2"/>
     </row>
@@ -36653,7 +36653,7 @@
         <v>2617</v>
       </c>
       <c r="B2519" s="2" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
       <c r="E2519" s="2"/>
     </row>
@@ -36662,7 +36662,7 @@
         <v>2618</v>
       </c>
       <c r="B2520" s="2" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
       <c r="E2520" s="2"/>
     </row>
@@ -36680,7 +36680,7 @@
         <v>2620</v>
       </c>
       <c r="B2522" s="2" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="E2522" s="2"/>
     </row>
@@ -36689,7 +36689,7 @@
         <v>2621</v>
       </c>
       <c r="B2523" s="2" t="s">
-        <v>4360</v>
+        <v>4358</v>
       </c>
       <c r="E2523" s="2"/>
     </row>
@@ -36761,7 +36761,7 @@
         <v>2624</v>
       </c>
       <c r="B2531" s="2" t="s">
-        <v>4361</v>
+        <v>4359</v>
       </c>
       <c r="E2531" s="2"/>
     </row>
@@ -36770,7 +36770,7 @@
         <v>2625</v>
       </c>
       <c r="B2532" s="2" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
       <c r="E2532" s="2"/>
     </row>
@@ -36779,7 +36779,7 @@
         <v>2626</v>
       </c>
       <c r="B2533" s="2" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="E2533" s="2"/>
     </row>
@@ -36815,7 +36815,7 @@
         <v>2630</v>
       </c>
       <c r="B2537" s="2" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="E2537" s="2"/>
     </row>
@@ -36824,7 +36824,7 @@
         <v>2631</v>
       </c>
       <c r="B2538" s="2" t="s">
-        <v>4365</v>
+        <v>4363</v>
       </c>
       <c r="E2538" s="2"/>
     </row>
@@ -36833,7 +36833,7 @@
         <v>2632</v>
       </c>
       <c r="B2539" s="2" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="E2539" s="2"/>
     </row>
@@ -36851,7 +36851,7 @@
         <v>2634</v>
       </c>
       <c r="B2541" s="2" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="E2541" s="2"/>
     </row>
@@ -36869,7 +36869,7 @@
         <v>2636</v>
       </c>
       <c r="B2543" s="2" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="E2543" s="2"/>
     </row>
@@ -36920,10 +36920,10 @@
     </row>
     <row r="2549" spans="1:5">
       <c r="A2549" s="2" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="B2549" s="2" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
       <c r="E2549" s="2"/>
     </row>
@@ -36977,7 +36977,7 @@
         <v>2641</v>
       </c>
       <c r="B2555" s="2" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="E2555" s="2"/>
     </row>
@@ -37064,10 +37064,10 @@
     </row>
     <row r="2565" spans="1:5">
       <c r="A2565" s="2" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="B2565" s="2" t="s">
-        <v>4371</v>
+        <v>4369</v>
       </c>
       <c r="E2565" s="2"/>
     </row>
@@ -37076,7 +37076,7 @@
         <v>2643</v>
       </c>
       <c r="B2566" s="2" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="E2566" s="2"/>
     </row>
@@ -37112,7 +37112,7 @@
         <v>2645</v>
       </c>
       <c r="B2570" s="2" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="E2570" s="2"/>
     </row>
@@ -37121,7 +37121,7 @@
         <v>473</v>
       </c>
       <c r="B2571" s="2" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="E2571" s="2"/>
     </row>
@@ -37211,7 +37211,7 @@
         <v>2653</v>
       </c>
       <c r="B2581" s="2" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="E2581" s="2"/>
     </row>
@@ -37247,7 +37247,7 @@
         <v>2657</v>
       </c>
       <c r="B2585" s="2" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="E2585" s="2"/>
     </row>
@@ -37265,13 +37265,13 @@
         <v>2659</v>
       </c>
       <c r="B2587" s="2" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="E2587" s="2"/>
     </row>
     <row r="2588" spans="1:5" ht="75">
       <c r="A2588" s="2" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="B2588" s="2" t="s">
         <v>3509</v>
@@ -37301,7 +37301,7 @@
         <v>2663</v>
       </c>
       <c r="B2591" s="2" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="E2591" s="2"/>
     </row>
@@ -37310,7 +37310,7 @@
         <v>2664</v>
       </c>
       <c r="B2592" s="2" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="E2592" s="2"/>
     </row>
@@ -37319,7 +37319,7 @@
         <v>2665</v>
       </c>
       <c r="B2593" s="2" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
       <c r="E2593" s="2"/>
     </row>
@@ -37328,7 +37328,7 @@
         <v>2666</v>
       </c>
       <c r="B2594" s="2" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
       <c r="E2594" s="2"/>
     </row>
@@ -37337,7 +37337,7 @@
         <v>2667</v>
       </c>
       <c r="B2595" s="2" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="E2595" s="2"/>
     </row>
@@ -37352,10 +37352,10 @@
     </row>
     <row r="2597" spans="1:5">
       <c r="A2597" s="2" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
       <c r="B2597" s="2" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
       <c r="E2597" s="2"/>
     </row>
@@ -37424,19 +37424,19 @@
     </row>
     <row r="2605" spans="1:5">
       <c r="A2605" s="2" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="B2605" s="2" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
       <c r="E2605" s="2"/>
     </row>
     <row r="2606" spans="1:5" ht="45">
       <c r="A2606" s="2" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="B2606" s="2" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="E2606" s="2"/>
     </row>
@@ -37526,7 +37526,7 @@
         <v>2684</v>
       </c>
       <c r="B2616" s="2" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="E2616" s="2"/>
     </row>
@@ -37535,7 +37535,7 @@
         <v>2685</v>
       </c>
       <c r="B2617" s="2" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="E2617" s="2"/>
     </row>
@@ -37544,7 +37544,7 @@
         <v>2686</v>
       </c>
       <c r="B2618" s="2" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="E2618" s="2"/>
     </row>
@@ -37553,7 +37553,7 @@
         <v>2687</v>
       </c>
       <c r="B2619" s="2" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="E2619" s="2"/>
     </row>
@@ -37562,7 +37562,7 @@
         <v>2688</v>
       </c>
       <c r="B2620" s="2" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="E2620" s="2"/>
     </row>
@@ -37571,7 +37571,7 @@
         <v>2689</v>
       </c>
       <c r="B2621" s="2" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="E2621" s="2"/>
     </row>
@@ -37598,7 +37598,7 @@
         <v>2692</v>
       </c>
       <c r="B2624" s="2" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="E2624" s="2"/>
     </row>
@@ -37616,7 +37616,7 @@
         <v>2694</v>
       </c>
       <c r="B2626" s="2" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="E2626" s="2"/>
     </row>
@@ -37625,7 +37625,7 @@
         <v>2695</v>
       </c>
       <c r="B2627" s="2" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="E2627" s="2"/>
     </row>
@@ -37643,7 +37643,7 @@
         <v>2697</v>
       </c>
       <c r="B2629" s="2" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="E2629" s="2"/>
     </row>
@@ -37715,7 +37715,7 @@
         <v>2705</v>
       </c>
       <c r="B2637" s="2" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="E2637" s="2"/>
     </row>
@@ -37724,7 +37724,7 @@
         <v>2706</v>
       </c>
       <c r="B2638" s="2" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="E2638" s="2"/>
     </row>
@@ -37742,7 +37742,7 @@
         <v>2708</v>
       </c>
       <c r="B2640" s="2" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="E2640" s="2"/>
     </row>
@@ -37760,7 +37760,7 @@
         <v>2710</v>
       </c>
       <c r="B2642" s="2" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="E2642" s="2"/>
     </row>
@@ -37778,7 +37778,7 @@
         <v>2712</v>
       </c>
       <c r="B2644" s="2" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="E2644" s="2"/>
     </row>
@@ -37787,7 +37787,7 @@
         <v>2713</v>
       </c>
       <c r="B2645" s="2" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="E2645" s="2"/>
     </row>
@@ -37805,7 +37805,7 @@
         <v>2715</v>
       </c>
       <c r="B2647" s="2" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="E2647" s="2"/>
     </row>
@@ -37814,7 +37814,7 @@
         <v>2716</v>
       </c>
       <c r="B2648" s="2" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="E2648" s="2"/>
     </row>
@@ -37850,7 +37850,7 @@
         <v>2720</v>
       </c>
       <c r="B2652" s="2" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="E2652" s="2"/>
     </row>
@@ -37868,7 +37868,7 @@
         <v>2722</v>
       </c>
       <c r="B2654" s="2" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
       <c r="E2654" s="2"/>
     </row>
@@ -38012,7 +38012,7 @@
         <v>2580</v>
       </c>
       <c r="B2670" s="2" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
       <c r="E2670" s="2"/>
     </row>
@@ -38021,7 +38021,7 @@
         <v>2728</v>
       </c>
       <c r="B2671" s="2" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="E2671" s="2"/>
     </row>
@@ -38030,7 +38030,7 @@
         <v>2605</v>
       </c>
       <c r="B2672" s="2" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="E2672" s="2"/>
     </row>
@@ -38039,7 +38039,7 @@
         <v>2606</v>
       </c>
       <c r="B2673" s="2" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="E2673" s="2"/>
     </row>
@@ -38048,7 +38048,7 @@
         <v>2607</v>
       </c>
       <c r="B2674" s="2" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
       <c r="E2674" s="2"/>
     </row>
@@ -38057,7 +38057,7 @@
         <v>2625</v>
       </c>
       <c r="B2675" s="2" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
       <c r="E2675" s="2"/>
     </row>
@@ -38066,7 +38066,7 @@
         <v>2626</v>
       </c>
       <c r="B2676" s="2" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="E2676" s="2"/>
     </row>
@@ -38102,7 +38102,7 @@
         <v>2645</v>
       </c>
       <c r="B2680" s="2" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="E2680" s="2"/>
     </row>
@@ -38111,7 +38111,7 @@
         <v>473</v>
       </c>
       <c r="B2681" s="2" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="E2681" s="2"/>
     </row>
@@ -38129,7 +38129,7 @@
         <v>2657</v>
       </c>
       <c r="B2683" s="2" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="E2683" s="2"/>
     </row>
@@ -38138,7 +38138,7 @@
         <v>2660</v>
       </c>
       <c r="B2684" s="2" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="E2684" s="2"/>
     </row>
@@ -38147,7 +38147,7 @@
         <v>2663</v>
       </c>
       <c r="B2685" s="2" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="E2685" s="2"/>
     </row>
@@ -38156,7 +38156,7 @@
         <v>2664</v>
       </c>
       <c r="B2686" s="2" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="E2686" s="2"/>
     </row>
@@ -38165,7 +38165,7 @@
         <v>2684</v>
       </c>
       <c r="B2687" s="2" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="E2687" s="2"/>
     </row>
@@ -38174,7 +38174,7 @@
         <v>2685</v>
       </c>
       <c r="B2688" s="2" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="E2688" s="2"/>
     </row>
@@ -38183,7 +38183,7 @@
         <v>2685</v>
       </c>
       <c r="B2689" s="2" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="E2689" s="2"/>
     </row>
@@ -38219,7 +38219,7 @@
         <v>2595</v>
       </c>
       <c r="B2693" s="2" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="E2693" s="2"/>
     </row>
@@ -38228,7 +38228,7 @@
         <v>2605</v>
       </c>
       <c r="B2694" s="2" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="E2694" s="2"/>
     </row>
@@ -38255,7 +38255,7 @@
         <v>473</v>
       </c>
       <c r="B2697" s="2" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="E2697" s="2"/>
     </row>
@@ -38291,7 +38291,7 @@
         <v>2660</v>
       </c>
       <c r="B2701" s="2" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="2702" spans="1:5">
@@ -38299,7 +38299,7 @@
         <v>2663</v>
       </c>
       <c r="B2702" s="2" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="2703" spans="1:5">
@@ -38315,7 +38315,7 @@
         <v>2684</v>
       </c>
       <c r="B2704" s="2" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="2705" spans="1:2">
@@ -38323,7 +38323,7 @@
         <v>2705</v>
       </c>
       <c r="B2705" s="2" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="2706" spans="1:2">
@@ -38331,7 +38331,7 @@
         <v>2706</v>
       </c>
       <c r="B2706" s="2" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="2707" spans="1:2" ht="30">
@@ -38355,7 +38355,7 @@
         <v>2732</v>
       </c>
       <c r="B2709" s="2" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="2710" spans="1:2">
@@ -38379,7 +38379,7 @@
         <v>822</v>
       </c>
       <c r="B2712" s="2" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="2713" spans="1:2">
@@ -38419,7 +38419,7 @@
         <v>2595</v>
       </c>
       <c r="B2717" s="2" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="2718" spans="1:2">
@@ -38427,7 +38427,7 @@
         <v>2734</v>
       </c>
       <c r="B2718" s="2" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="2719" spans="1:2">
@@ -38443,7 +38443,7 @@
         <v>1340</v>
       </c>
       <c r="B2720" s="2" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="2721" spans="1:2">
@@ -38459,7 +38459,7 @@
         <v>2736</v>
       </c>
       <c r="B2722" s="2" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -38547,7 +38547,7 @@
         <v>1842</v>
       </c>
       <c r="B2733" s="2" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="2734" spans="1:2">
@@ -38571,7 +38571,7 @@
         <v>2741</v>
       </c>
       <c r="B2736" s="2" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="2737" spans="1:2">

--- a/tables/trnsl_20250620_new.xlsx
+++ b/tables/trnsl_20250620_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programs\Unreal Engine Modding\UnrealPak\Русификатор для игры The Midnight Walk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\TheMidnightWalk-RU\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1274ED0-BFD5-4E1A-AB09-EA6622A6340C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906EF250-0300-42D8-AC67-46A81FC0481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE8775F8-18EC-47CB-8F58-14CC3C9B8901}"/>
   </bookViews>
@@ -13532,10 +13532,10 @@
     <t>Карта Углеграда</t>
   </si>
   <si>
-    <t>Эй, я почти забыл, каково это...</t>
-  </si>
-  <si>
     <t>Титры (версия русификатора 2.9 – 20251203)</t>
+  </si>
+  <si>
+    <t>Хэй, я почти забыл, каково это...</t>
   </si>
 </sst>
 </file>
@@ -13954,8 +13954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996245DB-D62E-4B2D-B5A4-DB58784126A7}">
   <dimension ref="A1:F2737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1583" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1600" sqref="C1600"/>
+    <sheetView tabSelected="1" topLeftCell="A695" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D706" sqref="D706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18318,7 +18318,7 @@
         <v>881</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="E483" s="2"/>
     </row>
@@ -20307,7 +20307,7 @@
         <v>1064</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E704" s="2"/>
     </row>

--- a/tables/trnsl_20250620_new.xlsx
+++ b/tables/trnsl_20250620_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\TheMidnightWalk-RU\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41DD3CF-187C-45B5-A721-54D3EAFA15C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FC2A8B-269B-4DB9-8D16-215CDCB747E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE8775F8-18EC-47CB-8F58-14CC3C9B8901}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE8775F8-18EC-47CB-8F58-14CC3C9B8901}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13529,13 +13529,13 @@
     <t>Титры (версия русификатора 2.9 – 20251203)</t>
   </si>
   <si>
-    <t>Хэй, я почти забыл, каково это...</t>
-  </si>
-  <si>
     <t>Тело... Что случилось с головой?</t>
   </si>
   <si>
     <t>Голова... Что случилось с телом?</t>
+  </si>
+  <si>
+    <t>Эй, я почти забыл, каково это...</t>
   </si>
 </sst>
 </file>
@@ -13954,8 +13954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996245DB-D62E-4B2D-B5A4-DB58784126A7}">
   <dimension ref="A1:F2737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A695" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B704" sqref="B704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15810,7 +15810,7 @@
         <v>648</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="E205" s="2"/>
     </row>
@@ -15855,7 +15855,7 @@
         <v>653</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="E210" s="2"/>
     </row>
@@ -20307,7 +20307,7 @@
         <v>1064</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>4497</v>
+        <v>4499</v>
       </c>
       <c r="E704" s="2"/>
     </row>
